--- a/Lab5/task2.xlsx
+++ b/Lab5/task2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repos\PyCharm Projects\Computer-Modelling-Labs\Lab5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Korneeva\ComputerLabs\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DD9EE5-473D-4FD5-B306-9226C79D9976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0B71FB-6727-4A61-AF9E-6D0EEC7E8F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="3" r:id="rId1"/>
-    <sheet name="неогран" sheetId="4" r:id="rId2"/>
-    <sheet name="отказы" sheetId="1" r:id="rId3"/>
-    <sheet name="огран" sheetId="2" r:id="rId4"/>
+    <sheet name="неогран" sheetId="4" r:id="rId1"/>
+    <sheet name="отказы" sheetId="1" r:id="rId2"/>
+    <sheet name="огран" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -434,25 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D759A04-00D3-4405-BCC6-64B11274BCC8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31114650-5CB4-450A-9839-A5CE47C0D654}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,50 +495,50 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>P2</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <f>Q2</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <f>1/B2</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D2">
         <f>A2/C2</f>
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <f>D2/$M$2</f>
-        <v>0.16</v>
+        <v>0.75</v>
       </c>
       <c r="F2">
-        <f>IF(E2&lt;1,(SERIESSUM(D2,0,1,$O$2:$O$5)+(D2^($M$2+1))/(FACT($M$2)*($M$2-D2)))^(-1),"")</f>
-        <v>0.82928816220897505</v>
+        <f>IF(E2&lt;1,(SERIESSUM(D2,0,1,$O$2:$O$6)+(D2^($M$2+1))/(FACT($M$2)*($M$2-D2)))^(-1),"")</f>
+        <v>3.9215686274509803E-2</v>
       </c>
       <c r="G2">
         <f>IF(E2&lt;1,(D2^($M$2+1)*F2)/(FACT($M$2)*($M$2-D2)),"")</f>
-        <v>4.3133515078196366E-4</v>
+        <v>0.39705882352941174</v>
       </c>
       <c r="H2">
         <f>IF(E2&lt;1,($M$2*G2)/($M$2-D2),"")</f>
-        <v>5.1349422712138537E-4</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="I2">
         <f>IF(E2&lt;1,H2/A2,"")</f>
-        <v>6.4186778390173168E-4</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="J2">
         <f>IF(E2&lt;1,H2+D2)</f>
-        <v>0.80051349422712148</v>
+        <v>4.5882352941176467</v>
       </c>
       <c r="K2">
         <f>IF(E2&lt;1,I2+B2,"")</f>
-        <v>1.0006418677839017</v>
+        <v>4.5882352941176467</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -563,56 +548,56 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">P3</f>
-        <v>0.43691988166891216</v>
+        <v>0.64922112843682567</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="1">Q3</f>
-        <v>0.26201049782423169</v>
+        <v>0.4890820830633833</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="2">1/B3</f>
-        <v>3.8166409678395579</v>
+        <v>2.044646562671983</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" ca="1" si="3">A3/C3</f>
-        <v>0.11447759570537608</v>
+        <v>0.31752242186464302</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="4">D3/$M$2</f>
-        <v>2.2895519141075217E-2</v>
+        <v>7.9380605466160756E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F16" ca="1" si="5">IF(E3&lt;1,(SERIESSUM(D3,0,1,$O$2:$O$5)+(D3^($M$2+1))/(FACT($M$2)*($M$2-D3)))^(-1),"")</f>
-        <v>8.2453689925632521</v>
+        <v>2.6787772676300619</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" ca="1" si="6">IF(E3&lt;1,(D3^($M$2+1)*F3)/(FACT($M$2)*($M$2-D3)),"")</f>
-        <v>3.165489216522003E-8</v>
+        <v>9.7826664061625792E-5</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" ca="1" si="7">IF(E3&lt;1,($M$2*G3)/($M$2-D3),"")</f>
-        <v>3.2396629823449134E-8</v>
+        <v>1.0626178922850182E-4</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I16" ca="1" si="8">IF(E3&lt;1,H3/A3,"")</f>
-        <v>7.4147758393834221E-8</v>
+        <v>1.636758025487489E-4</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J16" ca="1" si="9">IF(E3&lt;1,H3+D3)</f>
-        <v>0.1144776281020059</v>
+        <v>0.31762868365387154</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K16" ca="1" si="10">IF(E3&lt;1,I3+B3,"")</f>
-        <v>0.26201057197199007</v>
+        <v>0.48924575886593202</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -623,57 +608,57 @@
       </c>
       <c r="P3">
         <f ca="1">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.43691988166891216</v>
+        <v>0.64922112843682567</v>
       </c>
       <c r="Q3">
-        <f ca="1">_xlfn.EXPON.DIST(RAND(),RAND(),TRUE)</f>
-        <v>0.26201049782423169</v>
+        <f ca="1">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
+        <v>0.4890820830633833</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45658797927056477</v>
+        <v>0.41674699206475435</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25219052218429555</v>
+        <v>0.43710373522954266</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9652560744103655</v>
+        <v>2.2877864438171764</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11514716091531604</v>
+        <v>0.18216166687718069</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3029432183063209E-2</v>
+        <v>4.5540416719295172E-2</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1946355255817718</v>
+        <v>5.0059387050582886</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2584894394432806E-8</v>
+        <v>1.0958262763255437E-5</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3352994929258213E-8</v>
+        <v>1.1481117645222105E-5</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="8"/>
-        <v>7.3048342145455188E-8</v>
+        <v>2.7549371354402395E-5</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11514719426831098</v>
+        <v>0.18217314799482592</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.2521905952326377</v>
+        <v>0.43713128460089706</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -684,57 +669,57 @@
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P16" ca="1" si="11">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.45658797927056477</v>
+        <v>0.41674699206475435</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q16" ca="1" si="12">_xlfn.EXPON.DIST(RAND(),RAND(),TRUE)</f>
-        <v>0.25219052218429555</v>
+        <f t="shared" ref="P4:Q16" ca="1" si="12">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
+        <v>0.43710373522954266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58364765219717252</v>
+        <v>0.89702753453149831</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0797692365510395E-2</v>
+        <v>0.66651002266666859</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>14.124754163416167</v>
+        <v>1.5003525318329904</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1320906930107829E-2</v>
+        <v>0.59787784237321473</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2641813860215661E-3</v>
+        <v>0.14946946059330368</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="5"/>
-        <v>23.704336220817883</v>
+        <v>1.2297675805639237</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9828945515009688E-10</v>
+        <v>1.1505995174050133E-3</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9994181053904104E-10</v>
+        <v>1.3528021206712175E-3</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="8"/>
-        <v>3.4257280019263248E-10</v>
+        <v>1.5080943099230085E-3</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="9"/>
-        <v>4.1320907130049642E-2</v>
+        <v>0.59923064449388597</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="10"/>
-        <v>7.0797692708083199E-2</v>
+        <v>0.66801811697659164</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -745,605 +730,612 @@
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="11"/>
-        <v>0.58364765219717252</v>
+        <v>0.89702753453149831</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="12"/>
-        <v>7.0797692365510395E-2</v>
+        <v>0.66651002266666859</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83063930821821597</v>
+        <v>0.37438388329647632</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44213233866555601</v>
+        <v>0.75305122897888177</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2617662463193722</v>
+        <v>1.3279309049876653</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36725249993005943</v>
+        <v>0.28193024342629774</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3450499986011886E-2</v>
+        <v>7.0482560856574436E-2</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.257593158423246</v>
+        <v>3.0728820913201664</v>
       </c>
       <c r="G6">
         <f ca="1">IF(E6&lt;1,(D6^($M$2+1)*F6)/(FACT($M$2)*($M$2-D6)),"")</f>
-        <v>9.9635560544043437E-6</v>
+        <v>6.1337412685723335E-5</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="7"/>
-        <v>1.075339855480352E-5</v>
+        <v>6.5988447448869114E-5</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="8"/>
-        <v>1.294593025927267E-5</v>
+        <v>1.7625878247705593E-4</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36726325332861426</v>
+        <v>0.28199623187374662</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.44214528459581526</v>
+        <v>0.75322748776135884</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f>1/FACT(N6)</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.83063930821821597</v>
+        <v>0.37438388329647632</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.44213233866555601</v>
+        <v>0.75305122897888177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99460116630745043</v>
+        <v>0.58960115088814691</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43472655031399121</v>
+        <v>0.94932380030377539</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3002965870792274</v>
+        <v>1.0533813643774745</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43237953396711021</v>
+        <v>0.55972240522461525</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>8.6475906793422042E-2</v>
+        <v>0.13993060130615381</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8541184771898815</v>
+        <v>1.3400188089294081</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2103293990859152E-5</v>
+        <v>8.9159910540618733E-4</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="7"/>
-        <v>2.4195633322897887E-5</v>
+        <v>1.0366594913854908E-3</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4326970591364205E-5</v>
+        <v>1.758238581834375E-3</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43240372960043311</v>
+        <v>0.56075906471600079</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43475087728458256</v>
+        <v>0.95108203888560972</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.99460116630745043</v>
+        <v>0.58960115088814691</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.43472655031399121</v>
+        <v>0.94932380030377539</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39203280937632157</v>
+        <v>0.62857007076048388</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27057481634234665</v>
+        <v>0.73374926863871237</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6958354569655998</v>
+        <v>1.362863368648052</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10607420539717241</v>
+        <v>0.46121282970868871</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1214841079434481E-2</v>
+        <v>0.11530320742717218</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="5"/>
-        <v>8.9366306582307775</v>
+        <v>1.7118348268008807</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.167673689056899E-8</v>
+        <v>4.2063273749737138E-4</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="7"/>
-        <v>2.2146572915423816E-8</v>
+        <v>4.754541228459863E-4</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6491631276107805E-8</v>
+        <v>7.5640592029899199E-4</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10607422754374532</v>
+        <v>0.46168828383153471</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.27057487283397791</v>
+        <v>0.73450567455901139</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.39203280937632157</v>
+        <v>0.62857007076048388</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.27057481634234665</v>
+        <v>0.73374926863871237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3764080937120784</v>
+        <v>0.45821698231553482</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16871490247300419</v>
+        <v>0.63398057291764454</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9271586880714846</v>
+        <v>1.5773353990925874</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3505654820682725E-2</v>
+        <v>0.29050066496899696</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2701130964136545E-2</v>
+        <v>7.2625166242249239E-2</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="5"/>
-        <v>15.25208065205589</v>
+        <v>2.9690757898006139</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="6"/>
-        <v>1.688898671829499E-9</v>
+        <v>6.8997030298419796E-5</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7106255509831341E-9</v>
+        <v>7.4400369501986319E-5</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="8"/>
-        <v>4.5446035288806079E-9</v>
+        <v>1.6236929745819232E-4</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3505656531308283E-2</v>
+        <v>0.29057506533849892</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16871490701760772</v>
+        <v>0.6341429422151027</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="11"/>
-        <v>0.3764080937120784</v>
+        <v>0.45821698231553482</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.16871490247300419</v>
+        <v>0.63398057291764454</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46879611796268927</v>
+        <v>0.51940923307258924</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18104440421529217</v>
+        <v>0.48072403415852488</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5235068122339328</v>
+        <v>2.0801955570006663</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4872913874996903E-2</v>
+        <v>0.24969250190184061</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6974582774999379E-2</v>
+        <v>6.2423125475460153E-2</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="5"/>
-        <v>11.289674114082191</v>
+        <v>3.52769738184457</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="6"/>
-        <v>7.1545131234904708E-9</v>
+        <v>3.8040017471778068E-5</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2780550717468414E-9</v>
+        <v>4.0572691696420908E-5</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5524990060446897E-8</v>
+        <v>7.8113150697016459E-5</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4872921153051978E-2</v>
+        <v>0.24973307459353702</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18104441974028224</v>
+        <v>0.48080214730922188</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.46879611796268927</v>
+        <v>0.51940923307258924</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.18104440421529217</v>
+        <v>0.48072403415852488</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69055109918299962</v>
+        <v>0.57164130151571113</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18965307962793576</v>
+        <v>0.51519375964202652</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2727854562752947</v>
+        <v>1.9410172993842796</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13096514260051198</v>
+        <v>0.2945060312945405</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>2.6193028520102395E-2</v>
+        <v>7.3626507823635126E-2</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1471725881223689</v>
+        <v>2.9226510223749633</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1722635344754561E-8</v>
+        <v>7.28099236679957E-5</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3382823446986075E-8</v>
+        <v>7.8596726140058853E-5</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="8"/>
-        <v>9.1785855560834175E-8</v>
+        <v>1.3749308514213207E-4</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13096520598333541</v>
+        <v>0.29458462802068058</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18965317141379132</v>
+        <v>0.51533125272716862</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="11"/>
-        <v>0.69055109918299962</v>
+        <v>0.57164130151571113</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="12"/>
-        <v>0.18965307962793576</v>
+        <v>0.51519375964202652</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51454397209860736</v>
+        <v>0.68681307269054592</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7002554532617477E-2</v>
+        <v>0.50777230362317849</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>58.814691526594615</v>
+        <v>1.9693866578869321</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>8.748561945036178E-3</v>
+        <v>0.34874465607859201</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7497123890072356E-3</v>
+        <v>8.7186164019648002E-2</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="5"/>
-        <v>113.80523234454914</v>
+        <v>2.3998992350988724</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5190577596375655E-14</v>
+        <v>1.4127892039486929E-4</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5339897872960576E-14</v>
+        <v>1.5477298308382592E-4</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="8"/>
-        <v>1.658554030375581E-13</v>
+        <v>2.2534950081470165E-4</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="9"/>
-        <v>8.7485619451215177E-3</v>
+        <v>0.34889942906167581</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="10"/>
-        <v>1.7002554532783334E-2</v>
+        <v>0.50799765312399314</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="11"/>
-        <v>0.51454397209860736</v>
+        <v>0.68681307269054592</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="12"/>
-        <v>1.7002554532617477E-2</v>
+        <v>0.50777230362317849</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66074243378541619</v>
+        <v>0.99789791809677719</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0418831883606942E-2</v>
+        <v>0.8112330998195485</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>19.833858949936076</v>
+        <v>1.2326913192058373</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3313861687392192E-2</v>
+        <v>0.80952782140112256</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>6.6627723374784384E-3</v>
+        <v>0.20238195535028064</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="5"/>
-        <v>29.520355848706604</v>
+        <v>0.81290599114330397</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="6"/>
-        <v>6.7705429237039483E-11</v>
+        <v>3.6909062610411378E-3</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="7"/>
-        <v>6.8159560873763875E-11</v>
+        <v>4.6274106833453475E-3</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0315602175461231E-10</v>
+        <v>4.6371583700373815E-3</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3313861755551753E-2</v>
+        <v>0.81415523208446794</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="10"/>
-        <v>5.041883198676296E-2</v>
+        <v>0.81587025818958592</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="11"/>
-        <v>0.66074243378541619</v>
+        <v>0.99789791809677719</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="12"/>
-        <v>5.0418831883606942E-2</v>
+        <v>0.8112330998195485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49203774593123945</v>
+        <v>0.65820739934198114</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5534090333327176E-2</v>
+        <v>0.8217283399922557</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>28.14198958294725</v>
+        <v>1.2169471969403227</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.748411371132735E-2</v>
+        <v>0.54086767363190591</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4968227422654701E-3</v>
+        <v>0.13521691840797648</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
-        <v>56.696247433506727</v>
+        <v>1.4004330379192957</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7088571978664938E-12</v>
+        <v>7.8079865669173298E-4</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7183628308350869E-12</v>
+        <v>9.0288382521813519E-4</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5247038531368461E-12</v>
+        <v>1.3717315030501941E-3</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7484113714045714E-2</v>
+        <v>0.54177055745712399</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="10"/>
-        <v>3.5534090338851881E-2</v>
+        <v>0.82310007149530584</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49203774593123945</v>
+        <v>0.65820739934198114</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="12"/>
-        <v>3.5534090333327176E-2</v>
+        <v>0.8217283399922557</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9031221053728038</v>
+        <v>0.71452639994047118</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10685370896723974</v>
+        <v>0.77513641009435319</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>9.3585895114468123</v>
+        <v>1.290095507032466</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6501946609386394E-2</v>
+        <v>0.55385542856749881</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9300389321877279E-2</v>
+        <v>0.1384638571418747</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8708846907342895</v>
+        <v>1.3583636570961921</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3548314476499126E-8</v>
+        <v>8.5595986745517951E-4</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3814948358275471E-8</v>
+        <v>9.9352752005917402E-4</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5296877660383184E-8</v>
+        <v>1.3904699954290661E-3</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6501960424334746E-2</v>
+        <v>0.55484895608755802</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10685372426411739</v>
+        <v>0.77652688008978221</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="11"/>
-        <v>0.9031221053728038</v>
+        <v>0.71452639994047118</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="12"/>
-        <v>0.10685370896723974</v>
+        <v>0.77513641009435319</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6085545566454863</v>
+        <v>0.43686406695085112</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39743417957646776</v>
+        <v>0.75297721573949805</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5161399079104529</v>
+        <v>1.3280614327990006</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24186038094791992</v>
+        <v>0.32894868878928557</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8372076189583987E-2</v>
+        <v>8.2237172197321393E-2</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>3.6567490306489034</v>
+        <v>2.5705060052437076</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2819323962426645E-6</v>
+        <v>1.1237190008318522E-4</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3470941364453404E-6</v>
+        <v>1.2244111079572453E-4</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="8"/>
-        <v>2.2135963353407125E-6</v>
+        <v>2.8027278977261279E-4</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="9"/>
-        <v>0.24186172804205636</v>
+        <v>0.32907112990008131</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="10"/>
-        <v>0.3974363931728031</v>
+        <v>0.75325748852927066</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="11"/>
-        <v>0.6085545566454863</v>
+        <v>0.43686406695085112</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="12"/>
-        <v>0.39743417957646776</v>
+        <v>0.75297721573949805</v>
       </c>
     </row>
   </sheetData>
@@ -1351,12 +1343,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,19 +1407,19 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>O2</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <f>P2</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <f>1/B2</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D2">
         <f>A2/C2</f>
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1438,54 +1430,54 @@
       </c>
       <c r="G2">
         <f>(SERIESSUM(D2,0,1,$F$2:$F$5))^(-1)</f>
-        <v>0.45344619105199513</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="H2">
         <f>G2*D2^$N$2/FACT($N$2)</f>
-        <v>3.8694074969770259E-2</v>
+        <v>0.25961538461538464</v>
       </c>
       <c r="I2">
         <f>1-H2</f>
-        <v>0.96130592503022971</v>
+        <v>0.74038461538461542</v>
       </c>
       <c r="J2">
         <f>I2</f>
-        <v>0.96130592503022971</v>
+        <v>0.74038461538461542</v>
       </c>
       <c r="K2">
         <f>A2*J2</f>
-        <v>0.76904474002418377</v>
+        <v>0.74038461538461542</v>
       </c>
       <c r="L2">
         <f>K2/C2</f>
-        <v>0.76904474002418377</v>
+        <v>2.2211538461538463</v>
       </c>
       <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>3</v>
-      </c>
-      <c r="O2">
-        <v>0.8</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">O3</f>
-        <v>0.95062932739389161</v>
+        <v>0.38913072579490887</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="1">P3</f>
-        <v>0.20528572773247913</v>
+        <v>0.44441212777569378</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="2">1/B3</f>
-        <v>4.8712592494650355</v>
+        <v>2.2501636150324091</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" ca="1" si="3">A3/C3</f>
-        <v>0.19515063327789223</v>
+        <v>0.17293441383341548</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1496,53 +1488,53 @@
       </c>
       <c r="G3">
         <f ca="1">(SERIESSUM(D3,0,1,$F$2:$F$5))^(-1)</f>
-        <v>0.82275327692911493</v>
+        <v>0.84122009325093827</v>
       </c>
       <c r="H3">
         <f ca="1">G3*D3^$N$2/FACT($N$2)</f>
-        <v>1.0191269003132844E-3</v>
+        <v>3.134902950974268E-5</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I16" ca="1" si="4">1-H3</f>
-        <v>0.99898087309968675</v>
+        <v>0.99996865097049026</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J16" ca="1" si="5">I3</f>
-        <v>0.99898087309968675</v>
+        <v>0.99996865097049026</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K16" ca="1" si="6">A3*J3</f>
-        <v>0.94966051547411778</v>
+        <v>0.38911852692430277</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L16" ca="1" si="7">K3/C3</f>
-        <v>0.19495175001790555</v>
+        <v>0.17292899250737298</v>
       </c>
       <c r="O3">
         <f ca="1">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.95062932739389161</v>
+        <v>0.38913072579490887</v>
       </c>
       <c r="P3">
-        <f ca="1">_xlfn.EXPON.DIST(RAND(),RAND(),TRUE)</f>
-        <v>0.20528572773247913</v>
+        <f ca="1">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
+        <v>0.44441212777569378</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58319079845579003</v>
+        <v>0.54962280505679406</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6530737195547325E-3</v>
+        <v>0.7852233012534926</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>130.66645332905293</v>
+        <v>1.2735230836930695</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4632021731481472E-3</v>
+        <v>0.43157663343090064</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1552,54 +1544,54 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G3:G16" ca="1" si="8">(SERIESSUM(D4,0,1,$F$2:$F$5))^(-1)</f>
-        <v>0.99554674312863134</v>
+        <f t="shared" ref="G4:G16" ca="1" si="8">(SERIESSUM(D4,0,1,$F$2:$F$5))^(-1)</f>
+        <v>0.6501513951384893</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H3:H16" ca="1" si="9">G4*D4^$N$2/FACT($N$2)</f>
-        <v>1.4751972194852104E-8</v>
+        <f t="shared" ref="H4:H16" ca="1" si="9">G4*D4^$N$2/FACT($N$2)</f>
+        <v>9.3979893562033299E-4</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9999999852480278</v>
+        <v>0.99906020106437965</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9999999852480278</v>
+        <v>0.99906020106437965</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58319078985257555</v>
+        <v>0.549106270129609</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4632021073071132E-3</v>
+        <v>0.43117103817016367</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O16" ca="1" si="10">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.58319079845579003</v>
+        <f t="shared" ref="O4:P16" ca="1" si="10">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
+        <v>0.54962280505679406</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P16" ca="1" si="11">_xlfn.EXPON.DIST(RAND(),RAND(),TRUE)</f>
-        <v>7.6530737195547325E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.7852233012534926</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55381612212182707</v>
+        <v>0.38189117910887455</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0229054723901818E-2</v>
+        <v>0.53012832022092748</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>16.603282329170465</v>
+        <v>1.886335745246088</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3355821526254617E-2</v>
+        <v>0.202451329288177</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1610,585 +1602,585 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="8"/>
-        <v>0.96719439835860965</v>
+        <v>0.81677488139497034</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9824275319898068E-6</v>
+        <v>5.7170720072590574E-5</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99999401757246797</v>
+        <v>0.99994282927992739</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99999401757246797</v>
+        <v>0.99994282927992739</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55381280895701046</v>
+        <v>0.38186934611517553</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3355621977469566E-2</v>
+        <v>0.20243975499990197</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="10"/>
-        <v>0.55381612212182707</v>
+        <v>0.38189117910887455</v>
       </c>
       <c r="P5">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.0229054723901818E-2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.53012832022092748</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4015381992871847</v>
+        <v>0.46808718848589526</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13871474219484586</v>
+        <v>0.57222969017766367</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2090390983486712</v>
+        <v>1.7475500086154632</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5699267795504465E-2</v>
+        <v>0.26785338684341753</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.9458238955171776</v>
+        <v>0.76515251712081711</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7240024252408286E-5</v>
+        <v>1.6410633184660731E-4</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99997275997574764</v>
+        <v>0.9998358936681534</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99997275997574764</v>
+        <v>0.9998358936681534</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.40152726137689787</v>
+        <v>0.46801037241440846</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5697750546098879E-2</v>
+        <v>0.26780943040662997</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4015381992871847</v>
+        <v>0.46808718848589526</v>
       </c>
       <c r="P6">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.13871474219484586</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.57222969017766367</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44163803037580285</v>
+        <v>0.68764032004647768</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55275875952961373</v>
+        <v>0.65589320619706193</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8091074682398147</v>
+        <v>1.5246384480761823</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24411928983163064</v>
+        <v>0.45101861422565809</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.78348962523903554</v>
+        <v>0.63774762732319445</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8997143061943976E-3</v>
+        <v>1.0995512454292503E-3</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9981002856938056</v>
+        <v>0.99890044875457074</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9981002856938056</v>
+        <v>0.99890044875457074</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44079904429133843</v>
+        <v>0.68688422427616325</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24365553292431946</v>
+        <v>0.45052269614667451</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.44163803037580285</v>
+        <v>0.68764032004647768</v>
       </c>
       <c r="P7">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.55275875952961373</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.65589320619706193</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51158163337923224</v>
+        <v>0.88727529340403066</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20224757605359678</v>
+        <v>0.39135032818016663</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>4.944435031127365</v>
+        <v>2.5552552993890125</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10346614530448954</v>
+        <v>0.34723547725982101</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="8"/>
-        <v>0.90171051349834064</v>
+        <v>0.70696381336495906</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6646030705868125E-4</v>
+        <v>4.2823514477242187E-4</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99983353969294131</v>
+        <v>0.99957176485522758</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99983353969294131</v>
+        <v>0.99957176485522758</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51149647534345433</v>
+        <v>0.88689533094030681</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.10344892229817197</v>
+        <v>0.34708677882494654</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51158163337923224</v>
+        <v>0.88727529340403066</v>
       </c>
       <c r="P8">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.20224757605359678</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.39135032818016663</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83196900452363631</v>
+        <v>0.43225807956154461</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33362498712122185</v>
+        <v>0.84775307786457432</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9973774105734243</v>
+        <v>1.1795887577535242</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27756564841945391</v>
+        <v>0.3664481173801295</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.75777607433737393</v>
+        <v>0.69358151560242221</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7007649498653852E-3</v>
+        <v>5.2111820837707449E-4</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99729923505013462</v>
+        <v>0.99947888179162292</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99729923505013462</v>
+        <v>0.99947888179162292</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82972205179684444</v>
+        <v>0.43203282200556697</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27681600884491597</v>
+        <v>0.3662571545937372</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83196900452363631</v>
+        <v>0.43225807956154461</v>
       </c>
       <c r="P9">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.33362498712122185</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.84775307786457432</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69210104594515653</v>
+        <v>0.82230831062494036</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3208226463357534E-3</v>
+        <v>0.99689889797976761</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>158.20725496541345</v>
+        <v>1.0031107487695261</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3746479647628076E-3</v>
+        <v>0.8197582486616074</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="8"/>
-        <v>0.99563490688469547</v>
+        <v>0.44492427933911377</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3892429298128159E-8</v>
+        <v>8.3717845943949622E-3</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99999998610757068</v>
+        <v>0.99162821540560508</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99999998610757068</v>
+        <v>0.99162821540560508</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69210103633019171</v>
+        <v>0.81542412257820762</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="7"/>
-        <v>4.3746479039883197E-3</v>
+        <v>0.81289540918433401</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69210104594515653</v>
+        <v>0.82230831062494036</v>
       </c>
       <c r="P10">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.3208226463357534E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.99689889797976761</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.632514887007253</v>
+        <v>0.82107361579938531</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21822260666580262</v>
+        <v>0.42134351370775158</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5824766520704783</v>
+        <v>2.373360375718542</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13802904739764835</v>
+        <v>0.34595404229364146</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="8"/>
-        <v>0.87108518908102295</v>
+        <v>0.70786586935060247</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="9"/>
-        <v>3.817867494173498E-4</v>
+        <v>4.2248701827988025E-4</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99961821325058264</v>
+        <v>0.99957751298172015</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99961821325058264</v>
+        <v>0.99957751298172015</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.63227340120458442</v>
+        <v>0.82072672285565795</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="7"/>
-        <v>0.13797634973631723</v>
+        <v>0.34580788120185096</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="10"/>
-        <v>0.632514887007253</v>
+        <v>0.82107361579938531</v>
       </c>
       <c r="P11">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.21822260666580262</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.42134351370775158</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40241668919216783</v>
+        <v>0.5914675359273287</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13432850072709943</v>
+        <v>0.85164807650343011</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4444365461324624</v>
+        <v>1.1741939277379116</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4056030526747061E-2</v>
+        <v>0.50372218928673285</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="8"/>
-        <v>0.94737934566283544</v>
+        <v>0.60536634605496886</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4940497674105057E-5</v>
+        <v>1.62394516638247E-3</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9999750595023259</v>
+        <v>0.99837605483361758</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9999750595023259</v>
+        <v>0.99837605483361758</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.40240665271966702</v>
+        <v>0.59050702508128738</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="7"/>
-        <v>5.4054682342443434E-2</v>
+        <v>0.50290417207224114</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="10"/>
-        <v>0.40241668919216783</v>
+        <v>0.5914675359273287</v>
       </c>
       <c r="P12">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.13432850072709943</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.85164807650343011</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5936791839514276</v>
+        <v>0.42414509159313285</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24197100265784852</v>
+        <v>0.67962311908686801</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1327266036667147</v>
+        <v>1.4714037411552241</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14365314739782023</v>
+        <v>0.28825881009391024</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="8"/>
-        <v>0.8662018405594436</v>
+        <v>0.74973903313554202</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="9"/>
-        <v>4.279699627198936E-4</v>
+        <v>2.1568961655751273E-4</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99957203003728012</v>
+        <v>0.99978431038344251</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99957203003728012</v>
+        <v>0.99978431038344251</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5934251070932044</v>
+        <v>0.42405360790096236</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="7"/>
-        <v>0.14359166816568381</v>
+        <v>0.28819663566169179</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5936791839514276</v>
+        <v>0.42414509159313285</v>
       </c>
       <c r="P13">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.24197100265784852</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.67962311908686801</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40704388557770249</v>
+        <v>0.46542893159632065</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23257237629528493</v>
+        <v>0.67214584108230602</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2997367784140987</v>
+        <v>1.4877723536751712</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>9.4667163725272327E-2</v>
+        <v>0.31283612069184802</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="8"/>
-        <v>0.90967847965439119</v>
+        <v>0.73159738151225817</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2862777793981557E-4</v>
+        <v>2.9196343725232312E-4</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99987137222206024</v>
+        <v>0.99970803656274765</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99987137222206024</v>
+        <v>0.99970803656274765</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.40699152842717667</v>
+        <v>0.46529304336565508</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="7"/>
-        <v>9.4654986898358495E-2</v>
+        <v>0.31274478398275413</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.40704388557770249</v>
+        <v>0.46542893159632065</v>
       </c>
       <c r="P14">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.23257237629528493</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.67214584108230602</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84129748044450214</v>
+        <v>0.54003599284751513</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45413365837393671</v>
+        <v>0.53312632586360487</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2019949007536308</v>
+        <v>1.8757280432177348</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38206150257503724</v>
+        <v>0.28790740470089976</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68290058800835629</v>
+        <v>0.75000175425562166</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3475491787114606E-3</v>
+        <v>2.1471499544977054E-4</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9936524508212885</v>
+        <v>0.99978528500455022</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9936524508212885</v>
+        <v>0.99978528500455022</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83595730331345464</v>
+        <v>0.53992003902176811</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3796363483981498</v>
+        <v>0.28784558666380938</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84129748044450214</v>
+        <v>0.54003599284751513</v>
       </c>
       <c r="P15">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.45413365837393671</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.53312632586360487</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45617727244121381</v>
+        <v>0.6769311893780946</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13517676599165315</v>
+        <v>0.50386604590799566</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3977209963859298</v>
+        <v>1.9846544694194315</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1664568407496567E-2</v>
+        <v>0.34108264174373709</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="8"/>
-        <v>0.94019874528434844</v>
+        <v>0.71130596781150335</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="9"/>
-        <v>3.6743075527967754E-5</v>
+        <v>4.0112865077145316E-4</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99996325692447208</v>
+        <v>0.99959887134922853</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99996325692447208</v>
+        <v>0.99959887134922853</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45616051108523836</v>
+        <v>0.67665965288343422</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="7"/>
-        <v>6.1662302661602171E-2</v>
+        <v>0.34094582372385285</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="10"/>
-        <v>0.45617727244121381</v>
+        <v>0.6769311893780946</v>
       </c>
       <c r="P16">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.13517676599165315</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.50386604590799566</v>
       </c>
     </row>
   </sheetData>
@@ -2196,12 +2188,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EF0355-69CE-425C-A49C-608198744186}">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2270,75 +2262,75 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f>R2</f>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>Q2</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>1/B2</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>E2/$P$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G2">
+        <f>IF(F2&lt;&gt;1,1/(SERIESSUM(E2,0,1,$T$2:$T$6)+(E2^($P$2+1))*(1-F2^A2))/(FACT($P$2)*($P$2-E2)),1/(SERIESSUM(E2,0,1,$T$2:$T$6)+(A2*E2^($P$2+1))/($P$2*FACT(P2))))</f>
+        <v>2.295832346842872E-4</v>
+      </c>
+      <c r="H2">
+        <f>(100*G2*E2^($P$2+A2))/($P$2^A2*FACT($P$2))</f>
+        <v>2.451652999289727E-2</v>
+      </c>
+      <c r="I2">
+        <f>(E2^($P$2+1))/($P$2*FACT($P$2))</f>
+        <v>2.53125</v>
+      </c>
+      <c r="J2">
+        <f>(1-F2^A2*(A2+1-(A2*E2)/$P$2))/(1-E2/$P$2)^2</f>
+        <v>5.875</v>
+      </c>
+      <c r="K2">
+        <f>(A2*(A2+1))/2</f>
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <f>IF(F2&lt;&gt;1,I2*J2,I2*K2)</f>
+        <v>14.87109375</v>
+      </c>
+      <c r="M2">
+        <f>L2/C2</f>
+        <v>14.87109375</v>
+      </c>
+      <c r="N2">
+        <f>M2+(1-H2)/D2</f>
+        <v>17.79754416002131</v>
+      </c>
+      <c r="O2">
+        <f>(1-H2)*C2/D2</f>
+        <v>2.9264504100213085</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
         <f>3</f>
         <v>3</v>
-      </c>
-      <c r="B2">
-        <f>R2</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>Q2</f>
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <f>1/B2</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>C2/D2</f>
-        <v>0.8</v>
-      </c>
-      <c r="F2">
-        <f>E2/$P$2</f>
-        <v>0.16</v>
-      </c>
-      <c r="G2">
-        <f>IF(F2&lt;&gt;1,1/(SERIESSUM(E2,0,1,$T$2:$T$5)+(E2^($P$2+1))*(1-F2^A2))/(FACT($P$2)*($P$2-E2)),1/(SERIESSUM(E2,0,1,$T$2:$T$5)+(A2*E2^($P$2+1))/($P$2*FACT(P2))))</f>
-        <v>1.353056549789796E-3</v>
-      </c>
-      <c r="H2">
-        <f>(G2*E2^($P$2+A2))/($P$2^A2*FACT($P$2))</f>
-        <v>1.5133681330692121E-8</v>
-      </c>
-      <c r="I2">
-        <f>(E2^($P$2+1))/($P$2*FACT($P$2))</f>
-        <v>4.3690666666666695E-4</v>
-      </c>
-      <c r="J2">
-        <f>(1-F2^A2*(A2+1-(A2*E2)/$P$2))/(1-E2/$P$2)^2</f>
-        <v>1.3968000000000003</v>
-      </c>
-      <c r="K2">
-        <f>(A2*(A2+1))/2</f>
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <f>IF(F2&lt;&gt;1,I2*J2,I2*K2)</f>
-        <v>6.1027123200000049E-4</v>
-      </c>
-      <c r="M2">
-        <f>L2/C2</f>
-        <v>7.6283904000000056E-4</v>
-      </c>
-      <c r="N2">
-        <f>M2+(1-H2)/D2</f>
-        <v>1.0007628239063187</v>
-      </c>
-      <c r="O2">
-        <f>(1-H2)*C2/D2</f>
-        <v>0.79999998789305504</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2">
-        <f>0.8</f>
-        <v>0.8</v>
-      </c>
-      <c r="R2">
-        <f>1</f>
-        <v>1</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -2350,71 +2342,72 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="0">R3</f>
-        <v>8.1686971109527495E-2</v>
+        <v>0.42479762924572118</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">Q3</f>
-        <v>0.83911213661761463</v>
+        <v>0.49059985136189732</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" ca="1" si="2">1/B3</f>
-        <v>12.24185431798151</v>
+        <v>2.3540621019369135</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="3">C3/D3</f>
-        <v>6.8544528861536974E-2</v>
+        <v>0.20840565376683717</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F16" ca="1" si="4">E3/$P$2</f>
-        <v>1.3708905772307396E-2</v>
+        <v>5.2101413441709293E-2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" ca="1" si="5">IF(F3&lt;&gt;1,1/(SERIESSUM(E3,0,1,$T$2:$T$5)+(E3^($P$2+1))*(1-F3^A3))/(FACT($P$2)*($P$2-E3)),1/(SERIESSUM(E3,0,1,$T$2:$T$5)+(A3*E3^($P$2+1))/($P$2*FACT(P3))))</f>
-        <v>2.3818074217747863E-2</v>
+        <f ca="1">IF(F3&lt;&gt;1,1/(SERIESSUM(E3,0,1,$T$2:$T$6)+(E3^($P$2+1))*(1-F3^A3))/(FACT($P$2)*($P$2-E3)),1/(SERIESSUM(E3,0,1,$T$2:$T$6)+(A3*E3^($P$2+1))/($P$2*FACT(P3))))</f>
+        <v>4.7346419957333671E-2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H16" ca="1" si="6">(G3*E3^($P$2+A3))/($P$2^A3*FACT($P$2))</f>
-        <v>7.7374481273112377E-16</v>
+        <f t="shared" ref="H3:H16" ca="1" si="5">(G3*E3^($P$2+A3))/($P$2^A3*FACT($P$2))</f>
+        <v>2.7422807296487144E-11</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I16" ca="1" si="7">(E3^($P$2+1))/($P$2*FACT($P$2))</f>
-        <v>1.7285642376588223E-10</v>
+        <f t="shared" ref="I3:I16" ca="1" si="6">(E3^($P$2+1))/($P$2*FACT($P$2))</f>
+        <v>4.0952106883944243E-6</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J16" ca="1" si="8">(1-F3^A3*(A3+1-(A3*E3)/$P$2))/(1-E3/$P$2)^2</f>
-        <v>1.027981613837037</v>
+        <f t="shared" ref="J3:J16" ca="1" si="7">(1-F3^A3*(A3+1-(A3*E3)/$P$2))/(1-E3/$P$2)^2</f>
+        <v>1.1129122278164629</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K16" si="9">(A3*(A3+1))/2</f>
-        <v>6</v>
+        <f t="shared" ref="K3:K16" si="8">(A3*(A3+1))/2</f>
+        <v>10</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L16" ca="1" si="10">IF(F3&lt;&gt;1,I3*J3,I3*K3)</f>
-        <v>1.7769322546495037E-10</v>
+        <f t="shared" ref="L3:L16" ca="1" si="9">IF(F3&lt;&gt;1,I3*J3,I3*K3)</f>
+        <v>4.5576100505988295E-6</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M16" ca="1" si="11">L3/C3</f>
-        <v>2.1176338383236326E-10</v>
+        <f t="shared" ref="M3:M16" ca="1" si="10">L3/C3</f>
+        <v>9.2898724652014813E-6</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N16" ca="1" si="12">M3+(1-H3)/D3</f>
-        <v>8.1686971321290811E-2</v>
+        <f t="shared" ref="N3:N16" ca="1" si="11">M3+(1-H3)/D3</f>
+        <v>0.42480691910653717</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O16" ca="1" si="13">(1-H3)*C3/D3</f>
-        <v>6.8544528861536919E-2</v>
+        <f t="shared" ref="O3:O16" ca="1" si="12">(1-H3)*C3/D3</f>
+        <v>0.20840565376112211</v>
       </c>
       <c r="Q3">
         <f ca="1">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.83911213661761463</v>
+        <v>0.49059985136189732</v>
       </c>
       <c r="R3">
-        <f ca="1">_xlfn.EXPON.DIST(RAND(),RAND(),TRUE)</f>
-        <v>8.1686971109527495E-2</v>
+        <f ca="1">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
+        <v>0.42479762924572118</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -2426,71 +2419,72 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30046912311406121</v>
+        <v>0.53731150151513052</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62772000839204189</v>
+        <v>0.46892116441672921</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3281289925434021</v>
+        <v>1.8611178007173932</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18861048048270798</v>
+        <v>0.25195673494497617</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7722096096541598E-2</v>
+        <v>6.2989183736244042E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.3445527120566392E-3</v>
+        <f t="shared" ref="G4:G16" ca="1" si="13">IF(F4&lt;&gt;1,1/(SERIESSUM(E4,0,1,$T$2:$T$6)+(E4^($P$2+1))*(1-F4^A4))/(FACT($P$2)*($P$2-E4)),1/(SERIESSUM(E4,0,1,$T$2:$T$6)+(A4*E4^($P$2+1))/($P$2*FACT(P4))))</f>
+        <v>3.8661211287562898E-2</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.9091931567763089E-13</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0219555909241097E-10</v>
       </c>
       <c r="I4">
-        <f t="shared" ca="1" si="7"/>
-        <v>7.5031508538220943E-8</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.0576905542166439E-5</v>
       </c>
       <c r="J4">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.0797130617948334</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1388809522071934</v>
       </c>
       <c r="K4">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L4">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.1012499814887724E-8</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1.2045836255268055E-5</v>
       </c>
       <c r="M4">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.5688403871152523E-5</v>
+      </c>
+      <c r="N4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.2905833609224617E-7</v>
-      </c>
-      <c r="N4">
+        <v>0.53733718986409085</v>
+      </c>
+      <c r="O4">
         <f t="shared" ca="1" si="12"/>
-        <v>0.30046925217212961</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.18861048048253995</v>
+        <v>0.25195673491922732</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q16" ca="1" si="14">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.62772000839204189</v>
+        <v>0.46892116441672921</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R16" ca="1" si="15">_xlfn.EXPON.DIST(RAND(),RAND(),TRUE)</f>
-        <v>0.30046912311406121</v>
+        <f t="shared" ref="Q4:R16" ca="1" si="15">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
+        <v>0.53731150151513052</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -2502,71 +2496,72 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2457428988425876</v>
+        <v>0.57352024562733139</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83570333401743579</v>
+        <v>0.56628932374165741</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0692935775961416</v>
+        <v>1.7436176100569456</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20536815987385992</v>
+        <v>0.32477839204845077</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1073631974771985E-2</v>
+        <v>8.1194598012112693E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.6238896514910582E-3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.9271939882047439E-2</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.6082376940044529E-12</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.8978987962970564E-10</v>
       </c>
       <c r="I5">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.2503955526799224E-7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.7641281758638089E-5</v>
       </c>
       <c r="J5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.0872083936803409</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1843080061915088</v>
       </c>
       <c r="K5">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L5">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3594405402941806E-7</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>4.4578871350065485E-5</v>
       </c>
       <c r="M5">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.872101676845752E-5</v>
+      </c>
+      <c r="N5">
         <f t="shared" ca="1" si="11"/>
-        <v>1.6267023056603215E-7</v>
-      </c>
-      <c r="N5">
+        <v>0.57359896630584339</v>
+      </c>
+      <c r="O5">
         <f t="shared" ca="1" si="12"/>
-        <v>0.24574306151242292</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.20536815987352963</v>
+        <v>0.32477839185689972</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="14"/>
-        <v>0.83570333401743579</v>
+        <v>0.56628932374165741</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="15"/>
-        <v>0.2457428988425876</v>
+        <v>0.57352024562733139</v>
       </c>
       <c r="S5">
         <v>3</v>
@@ -2578,761 +2573,779 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33760280816853933</v>
+        <v>0.51607728145993148</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93549229258586031</v>
+        <v>0.5517437404005745</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9620606695332237</v>
+        <v>1.9376942871251746</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31582482499701126</v>
+        <v>0.28474240960846264</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3164964999402246E-2</v>
+        <v>7.1185602402115661E-2</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.783136680584439E-3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.3854099189601639E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.1563971711815216E-11</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.3810981767165175E-10</v>
       </c>
       <c r="I6">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.6539650742843247E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.9497976671848925E-5</v>
       </c>
       <c r="J6">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.1382993684089318</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1590162756082816</v>
       </c>
       <c r="K6">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L6">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.8827073994282787E-6</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2.2598472304103497E-5</v>
       </c>
       <c r="M6">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.0958275825107969E-5</v>
+      </c>
+      <c r="N6">
         <f t="shared" ca="1" si="11"/>
-        <v>2.0125311713944263E-6</v>
-      </c>
-      <c r="N6">
+        <v>0.51611823961287351</v>
+      </c>
+      <c r="O6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.33760482068905462</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.31582482498704256</v>
+        <v>0.28474240954066271</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.93549229258586031</v>
+        <v>0.5517437404005745</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="15"/>
-        <v>0.33760280816853933</v>
+        <v>0.51607728145993148</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <f>1/FACT(S6)</f>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2466749838710114E-3</v>
+        <v>0.43024551113840076</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92047767231754507</v>
+        <v>0.89051017628770801</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>190.59690243328114</v>
+        <v>2.3242543480676114</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8294471765602818E-3</v>
+        <v>0.38313800597085235</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6588943531205631E-4</v>
+        <v>9.5784501492713087E-2</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.34460525147765503</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.4249686534347024E-2</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.7984513498508211E-24</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.8327228690981866E-9</v>
       </c>
       <c r="I7">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.1146245548027954E-17</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8.6001284957032748E-5</v>
       </c>
       <c r="J7">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.0019345776978279</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.2226081802115272</v>
       </c>
       <c r="K7">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L7">
-        <f t="shared" ca="1" si="10"/>
-        <v>2.1187154603057962E-17</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1.051458744971708E-4</v>
       </c>
       <c r="M7">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1807374839386455E-4</v>
+      </c>
+      <c r="N7">
         <f t="shared" ca="1" si="11"/>
-        <v>2.3017564945072179E-17</v>
-      </c>
-      <c r="N7">
+        <v>0.43036358409827385</v>
+      </c>
+      <c r="O7">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2466749838710348E-3</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.8294471765602818E-3</v>
+        <v>0.38313800526866654</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="14"/>
-        <v>0.92047767231754507</v>
+        <v>0.89051017628770801</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="15"/>
-        <v>5.2466749838710114E-3</v>
+        <v>0.43024551113840076</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9578323644028409E-3</v>
+        <v>0.54528888203756176</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72047329898076118</v>
+        <v>0.76871717985165844</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>201.70105128603871</v>
+        <v>1.8338903156494504</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5719858393749022E-3</v>
+        <v>0.41917293160437813</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1439716787498049E-4</v>
+        <v>0.10479323290109453</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.4660940015754495</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.1809671892184808E-2</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.2349332434499461E-25</v>
+        <f ca="1">(G8*E8^($P$2+A8))/($P$2^A8*FACT($P$2))</f>
+        <v>3.3833253675702529E-9</v>
       </c>
       <c r="I8">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.4618410286924249E-18</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.3480155963765399E-4</v>
       </c>
       <c r="J8">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.0014303254256904</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.2471345293335516</v>
       </c>
       <c r="K8">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L8">
-        <f t="shared" ca="1" si="10"/>
-        <v>3.4667925879354619E-18</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1.681156796321343E-4</v>
       </c>
       <c r="M8">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.1869639971436056E-4</v>
+      </c>
+      <c r="N8">
         <f t="shared" ca="1" si="11"/>
-        <v>4.8118266045943166E-18</v>
-      </c>
-      <c r="N8">
+        <v>0.54550757659238636</v>
+      </c>
+      <c r="O8">
         <f t="shared" ca="1" si="12"/>
-        <v>4.9578323644028461E-3</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="13"/>
-        <v>3.5719858393749022E-3</v>
+        <v>0.41917293018617968</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="14"/>
-        <v>0.72047329898076118</v>
+        <v>0.76871717985165844</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="15"/>
-        <v>4.9578323644028409E-3</v>
+        <v>0.54528888203756176</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17190010049311322</v>
+        <v>0.47844907728655434</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87356066392959775</v>
+        <v>0.63203893141298939</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8173322594425283</v>
+        <v>2.0900865890918556</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15016516591632856</v>
+        <v>0.30239844354372458</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0033033183265712E-2</v>
+        <v>7.5599610885931146E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0605581566223638E-2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.1688284111606832E-2</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.8280868792454538E-13</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.6064833226519062E-10</v>
       </c>
       <c r="I9">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.9110143634735471E-8</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.634065223056338E-5</v>
       </c>
       <c r="J9">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.0627720156130926</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1700734234471886</v>
       </c>
       <c r="K9">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L9">
-        <f t="shared" ca="1" si="10"/>
-        <v>2.030972586934353E-8</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3.0820497131247117E-5</v>
       </c>
       <c r="M9">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.8763605530350261E-5</v>
+      </c>
+      <c r="N9">
         <f t="shared" ca="1" si="11"/>
-        <v>2.3249359441143905E-8</v>
-      </c>
-      <c r="N9">
+        <v>0.47849784071953289</v>
+      </c>
+      <c r="O9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.17190012374244124</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.15016516591630111</v>
+        <v>0.3023984434346651</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="14"/>
-        <v>0.87356066392959775</v>
+        <v>0.63203893141298939</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="15"/>
-        <v>0.17190010049311322</v>
+        <v>0.47844907728655434</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9126902380400613E-2</v>
+        <v>0.64884717457048946</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56745770163949916</v>
+        <v>0.78978695223790407</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>12.637926797545099</v>
+        <v>1.5411949673079173</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4901170162635146E-2</v>
+        <v>0.51245103247220214</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="4"/>
-        <v>8.9802340325270298E-3</v>
+        <v>0.12811275811805053</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.6620449010431835E-2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.6961236199901718E-2</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.0336079080304076E-17</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3128807328040128E-8</v>
       </c>
       <c r="I10">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.3658238906515565E-11</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.6812103069148636E-4</v>
       </c>
       <c r="J10">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.018202401874891</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.3138749492970598</v>
       </c>
       <c r="K10">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L10">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3906851659995232E-11</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>4.8366500053495808E-4</v>
       </c>
       <c r="M10">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.1239933017944543E-4</v>
+      </c>
+      <c r="N10">
         <f t="shared" ca="1" si="11"/>
-        <v>2.4507292120303499E-11</v>
-      </c>
-      <c r="N10">
+        <v>0.64945956538207927</v>
+      </c>
+      <c r="O10">
         <f t="shared" ca="1" si="12"/>
-        <v>7.9126902404907912E-2</v>
-      </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.4901170162635146E-2</v>
+        <v>0.51245102574433121</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.56745770163949916</v>
+        <v>0.78978695223790407</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="15"/>
-        <v>7.9126902380400613E-2</v>
+        <v>0.64884717457048946</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7327378632380061E-2</v>
+        <v>0.86788263785253272</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71496853164595042</v>
+        <v>0.49252705024803428</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>21.129418719080039</v>
+        <v>1.1522295254971056</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3837586407444706E-2</v>
+        <v>0.42745567558299091</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="4"/>
-        <v>6.7675172814889413E-3</v>
+        <v>0.10686391889574773</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.8756292643412226E-2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.1302619215376222E-2</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.5864309917380988E-18</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.864652952072288E-9</v>
       </c>
       <c r="I11">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.5017563821098383E-12</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.4865660361291613E-4</v>
       </c>
       <c r="J11">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.0136724324334436</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.2528690291331335</v>
       </c>
       <c r="K11">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L11">
-        <f t="shared" ca="1" si="10"/>
-        <v>2.5359614772091713E-12</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1.8624725464274329E-4</v>
       </c>
       <c r="M11">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.7814624506197185E-4</v>
+      </c>
+      <c r="N11">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5469553763031482E-12</v>
-      </c>
-      <c r="N11">
+        <v>0.86826078074352941</v>
+      </c>
+      <c r="O11">
         <f t="shared" ca="1" si="12"/>
-        <v>4.7327378635927016E-2</v>
-      </c>
-      <c r="O11">
-        <f t="shared" ca="1" si="13"/>
-        <v>3.3837586407444706E-2</v>
+        <v>0.42745567393102307</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="14"/>
-        <v>0.71496853164595042</v>
+        <v>0.49252705024803428</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="15"/>
-        <v>4.7327378632380061E-2</v>
+        <v>0.86788263785253272</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0472368773775154E-3</v>
+        <v>0.71474431408483297</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48989428720308953</v>
+        <v>0.6851953444488551</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>124.26625626135245</v>
+        <v>1.3991017211244441</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9422953739972734E-3</v>
+        <v>0.48973947648221777</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="4"/>
-        <v>7.8845907479945464E-4</v>
+        <v>0.12243486912055444</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.42226570314301476</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.799019567631565E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.6424336460176232E-24</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.6895940240587109E-9</v>
       </c>
       <c r="I12">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.2566766666960814E-18</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.9346366038630818E-4</v>
       </c>
       <c r="J12">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.0015787831527367</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.2971819700623757</v>
       </c>
       <c r="K12">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L12">
-        <f t="shared" ca="1" si="10"/>
-        <v>6.2665546024095823E-18</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3.806757691216272E-4</v>
       </c>
       <c r="M12">
+        <f t="shared" ca="1" si="10"/>
+        <v>5.5557261473781355E-4</v>
+      </c>
+      <c r="N12">
         <f t="shared" ca="1" si="11"/>
-        <v>1.2791646618674965E-17</v>
-      </c>
-      <c r="N12">
+        <v>0.71529987977398857</v>
+      </c>
+      <c r="O12">
         <f t="shared" ca="1" si="12"/>
-        <v>8.0472368773775275E-3</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="13"/>
-        <v>3.9422953739972734E-3</v>
+        <v>0.48973947173684107</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="14"/>
-        <v>0.48989428720308953</v>
+        <v>0.6851953444488551</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="15"/>
-        <v>8.0472368773775154E-3</v>
+        <v>0.71474431408483297</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2972982322655868E-4</v>
+        <v>0.66439278590920303</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79367738477329308</v>
+        <v>0.9228423630959216</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>1370.3701947912998</v>
+        <v>1.5051337419799462</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7917005768953257E-4</v>
+        <v>0.61312980857233168</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1583401153790651E-4</v>
+        <v>0.15328245214308292</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.8771810154434809</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.3200030110703901E-2</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.4284252373285142E-30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.2908483034361163E-8</v>
       </c>
       <c r="I13">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.2905027652757864E-23</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.0259083800210682E-4</v>
       </c>
       <c r="J13">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.0002317082756307</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.3914572323225349</v>
       </c>
       <c r="K13">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L13">
-        <f t="shared" ca="1" si="10"/>
-        <v>6.2919603268243789E-23</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1.255916549366089E-3</v>
       </c>
       <c r="M13">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3609220811588894E-3</v>
+      </c>
+      <c r="N13">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9276043988850982E-23</v>
-      </c>
-      <c r="N13">
+        <v>0.66575367948227537</v>
+      </c>
+      <c r="O13">
         <f t="shared" ca="1" si="12"/>
-        <v>7.2972982322655868E-4</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.7917005768953257E-4</v>
+        <v>0.61312978226386161</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="14"/>
-        <v>0.79367738477329308</v>
+        <v>0.9228423630959216</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="15"/>
-        <v>7.2972982322655868E-4</v>
+        <v>0.66439278590920303</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8824512726877882E-2</v>
+        <v>0.89310970178714688</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96193467286898193</v>
+        <v>0.38799816096425338</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>14.529706936951147</v>
+        <v>1.119683279667617</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6204685135296357E-2</v>
+        <v>0.34652492183274575</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3240937027059271E-2</v>
+        <v>8.6631230458186437E-2</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.467732257789821E-2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.7212484817729678E-2</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.0717876509560064E-16</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.2085825689688329E-10</v>
       </c>
       <c r="I14">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.4033987850023626E-10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.2047651512662719E-5</v>
       </c>
       <c r="J14">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.0270078412941823</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1983780303625078</v>
       </c>
       <c r="K14">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L14">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.4413015566601547E-10</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6.2372762104738954E-5</v>
       </c>
       <c r="M14">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.6075530345228985E-4</v>
+      </c>
+      <c r="N14">
         <f t="shared" ca="1" si="11"/>
-        <v>1.4983362148299066E-10</v>
-      </c>
-      <c r="N14">
+        <v>0.8932704562681717</v>
+      </c>
+      <c r="O14">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8824512876711458E-2</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.6204685135296315E-2</v>
+        <v>0.34652492151364539</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="14"/>
-        <v>0.96193467286898193</v>
+        <v>0.38799816096425338</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="15"/>
-        <v>6.8824512726877882E-2</v>
+        <v>0.89310970178714688</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.045232771607283E-2</v>
+        <v>0.60501393620190047</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43302572964971536</v>
+        <v>0.50240465058440154</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>12.429721157716351</v>
+        <v>1.6528544884068388</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4837927911270453E-2</v>
+        <v>0.30396181521620919</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9675855822540905E-3</v>
+        <v>7.5990453804052296E-2</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.7342024058978388E-2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.1508307984793885E-2</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.8481630491823673E-18</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.7370259190999568E-10</v>
       </c>
       <c r="I15">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.979632115148856E-12</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.7028622577506854E-5</v>
       </c>
       <c r="J15">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.0140808129110463</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1710597972333154</v>
       </c>
       <c r="K15">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L15">
-        <f t="shared" ca="1" si="10"/>
-        <v>3.0215877575060123E-12</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3.1652133275110987E-5</v>
       </c>
       <c r="M15">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.300127444738607E-5</v>
+      </c>
+      <c r="N15">
         <f t="shared" ca="1" si="11"/>
-        <v>6.9778480829539748E-12</v>
-      </c>
-      <c r="N15">
+        <v>0.60507693725025258</v>
+      </c>
+      <c r="O15">
         <f t="shared" ca="1" si="12"/>
-        <v>8.0452327723050679E-2</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="13"/>
-        <v>3.4837927911270453E-2</v>
+        <v>0.30396181510261788</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43302572964971536</v>
+        <v>0.50240465058440154</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="15"/>
-        <v>8.045232771607283E-2</v>
+        <v>0.60501393620190047</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32325026015108788</v>
+        <v>0.67932048212615559</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93403719953545261</v>
+        <v>0.39141468506303767</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0935783300919781</v>
+        <v>1.4720592508416248</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30192776774062863</v>
+        <v>0.2658960125682801</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0385553548125727E-2</v>
+        <v>6.6474003142070026E-2</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.0269627682893508E-3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.6475302791426946E-2</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.3144023339966546E-11</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4833454221228419E-10</v>
       </c>
       <c r="I16">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.2626037833919599E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.3844838370723747E-5</v>
       </c>
       <c r="J16">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.1317103523281922</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1473793250293236</v>
       </c>
       <c r="K16">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L16">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.4289017725534234E-6</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1.5885281304941094E-5</v>
       </c>
       <c r="M16">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.05842752230483E-5</v>
+      </c>
+      <c r="N16">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5298124884791461E-6</v>
-      </c>
-      <c r="N16">
+        <v>0.67936106630061188</v>
+      </c>
+      <c r="O16">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32325178995609505</v>
-      </c>
-      <c r="O16">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.30192776773364083</v>
+        <v>0.26589601252883854</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="14"/>
-        <v>0.93403719953545261</v>
+        <v>0.39141468506303767</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="15"/>
-        <v>0.32325026015108788</v>
+        <v>0.67932048212615559</v>
       </c>
     </row>
   </sheetData>

--- a/Lab5/task2.xlsx
+++ b/Lab5/task2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Korneeva\ComputerLabs\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0B71FB-6727-4A61-AF9E-6D0EEC7E8F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F360C1A7-9D9F-46C0-8B87-1899C33DF6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,47 +557,47 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">P3</f>
-        <v>0.64922112843682567</v>
+        <v>0.55730469741284028</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="1">Q3</f>
-        <v>0.4890820830633833</v>
+        <v>0.38535624208342562</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="2">1/B3</f>
-        <v>2.044646562671983</v>
+        <v>2.5950014319049499</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" ca="1" si="3">A3/C3</f>
-        <v>0.31752242186464302</v>
+        <v>0.21476084389045275</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="4">D3/$M$2</f>
-        <v>7.9380605466160756E-2</v>
+        <v>5.3690210972613187E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F16" ca="1" si="5">IF(E3&lt;1,(SERIESSUM(D3,0,1,$O$2:$O$5)+(D3^($M$2+1))/(FACT($M$2)*($M$2-D3)))^(-1),"")</f>
-        <v>2.6787772676300619</v>
+        <v>4.1757514090760539</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" ca="1" si="6">IF(E3&lt;1,(D3^($M$2+1)*F3)/(FACT($M$2)*($M$2-D3)),"")</f>
-        <v>9.7826664061625792E-5</v>
+        <v>2.0999336834884979E-5</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" ca="1" si="7">IF(E3&lt;1,($M$2*G3)/($M$2-D3),"")</f>
-        <v>1.0626178922850182E-4</v>
+        <v>2.2190763615018724E-5</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I16" ca="1" si="8">IF(E3&lt;1,H3/A3,"")</f>
-        <v>1.636758025487489E-4</v>
+        <v>3.9818009282954678E-5</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J16" ca="1" si="9">IF(E3&lt;1,H3+D3)</f>
-        <v>0.31762868365387154</v>
+        <v>0.21478303465406776</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K16" ca="1" si="10">IF(E3&lt;1,I3+B3,"")</f>
-        <v>0.48924575886593202</v>
+        <v>0.38539606009270855</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -608,57 +608,57 @@
       </c>
       <c r="P3">
         <f ca="1">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.64922112843682567</v>
+        <v>0.55730469741284028</v>
       </c>
       <c r="Q3">
         <f ca="1">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.4890820830633833</v>
+        <v>0.38535624208342562</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41674699206475435</v>
+        <v>0.66170577879640602</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43710373522954266</v>
+        <v>0.93819685887233739</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2877864438171764</v>
+        <v>1.0658743850431844</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18216166687718069</v>
+        <v>0.62081028316446185</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5540416719295172E-2</v>
+        <v>0.15520257079111546</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0059387050582886</v>
+        <v>1.170237644859655</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0958262763255437E-5</v>
+        <v>1.330591540572903E-3</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1481117645222105E-5</v>
+        <v>1.5750421279323058E-3</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7549371354402395E-5</v>
+        <v>2.3802756125194968E-3</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18217314799482592</v>
+        <v>0.62238532529239421</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43713128460089706</v>
+        <v>0.94057713448485691</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -669,57 +669,57 @@
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P16" ca="1" si="11">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.41674699206475435</v>
+        <v>0.66170577879640602</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="P4:Q16" ca="1" si="12">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.43710373522954266</v>
+        <f t="shared" ref="Q4:Q16" ca="1" si="12">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
+        <v>0.93819685887233739</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89702753453149831</v>
+        <v>0.73202015197668002</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66651002266666859</v>
+        <v>0.4227345442082574</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5003525318329904</v>
+        <v>2.3655507071770234</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59787784237321473</v>
+        <v>0.30945020529712114</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14946946059330368</v>
+        <v>7.7362551324280285E-2</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2297675805639237</v>
+        <v>2.7601377914969007</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1505995174050133E-3</v>
+        <v>8.8426478106893509E-5</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3528021206712175E-3</v>
+        <v>9.5840980911639597E-5</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5080943099230085E-3</v>
+        <v>1.3092669737689518E-4</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59923064449388597</v>
+        <v>0.30954604627803278</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="10"/>
-        <v>0.66801811697659164</v>
+        <v>0.42286547090563431</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -730,57 +730,57 @@
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="11"/>
-        <v>0.89702753453149831</v>
+        <v>0.73202015197668002</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="12"/>
-        <v>0.66651002266666859</v>
+        <v>0.4227345442082574</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37438388329647632</v>
+        <v>0.71264253757978935</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75305122897888177</v>
+        <v>0.60514455648656595</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3279309049876653</v>
+        <v>1.6524977202239772</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28193024342629774</v>
+        <v>0.43125175233718249</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0482560856574436E-2</v>
+        <v>0.10781293808429562</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0728820913201664</v>
+        <v>1.8594889480376555</v>
       </c>
       <c r="G6">
         <f ca="1">IF(E6&lt;1,(D6^($M$2+1)*F6)/(FACT($M$2)*($M$2-D6)),"")</f>
-        <v>6.1337412685723335E-5</v>
+        <v>3.2383278237952361E-4</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5988447448869114E-5</v>
+        <v>3.6296511819414835E-4</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7625878247705593E-4</v>
+        <v>5.0932283585935936E-4</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.28199623187374662</v>
+        <v>0.43161471745537666</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.75322748776135884</v>
+        <v>0.60565387932242531</v>
       </c>
       <c r="N6">
         <v>4</v>
@@ -791,551 +791,551 @@
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.37438388329647632</v>
+        <v>0.71264253757978935</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.75305122897888177</v>
+        <v>0.60514455648656595</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58960115088814691</v>
+        <v>0.50058474755938709</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94932380030377539</v>
+        <v>0.78030526952624035</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0533813643774745</v>
+        <v>1.2815497204153787</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55972240522461525</v>
+        <v>0.39060891636505252</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13993060130615381</v>
+        <v>9.7652229091263129E-2</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3400188089294081</v>
+        <v>2.0967242828654369</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9159910540618733E-4</v>
+        <v>2.200933421213335E-4</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0366594913854908E-3</v>
+        <v>2.4391188100313229E-4</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="8"/>
-        <v>1.758238581834375E-3</v>
+        <v>4.8725392092414021E-4</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="9"/>
-        <v>0.56075906471600079</v>
+        <v>0.39085282824605566</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.95108203888560972</v>
+        <v>0.78079252344716454</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.58960115088814691</v>
+        <v>0.50058474755938709</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.94932380030377539</v>
+        <v>0.78030526952624035</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62857007076048388</v>
+        <v>0.65641459546153702</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73374926863871237</v>
+        <v>0.6877475998347895</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>1.362863368648052</v>
+        <v>1.4540217955543859</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46121282970868871</v>
+        <v>0.45144756252519641</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11530320742717218</v>
+        <v>0.1128618906312991</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7118348268008807</v>
+        <v>1.7577635564594987</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2063273749737138E-4</v>
+        <v>3.8702101680993011E-4</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="7"/>
-        <v>4.754541228459863E-4</v>
+        <v>4.3625790925083734E-4</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="8"/>
-        <v>7.5640592029899199E-4</v>
+        <v>6.6460726538857115E-4</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.46168828383153471</v>
+        <v>0.45188382043444725</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.73450567455901139</v>
+        <v>0.68841220710017803</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.62857007076048388</v>
+        <v>0.65641459546153702</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.73374926863871237</v>
+        <v>0.6877475998347895</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45821698231553482</v>
+        <v>0.61170620988391033</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63398057291764454</v>
+        <v>0.67414649236600688</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5773353990925874</v>
+        <v>1.4833571209283709</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29050066496899696</v>
+        <v>0.4123795957517426</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2625166242249239E-2</v>
+        <v>0.10309489893793565</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9690757898006139</v>
+        <v>1.963731572527718</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8997030298419796E-5</v>
+        <v>2.7198830992346035E-4</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4400369501986319E-5</v>
+        <v>3.0325204929862383E-4</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6236929745819232E-4</v>
+        <v>4.9574786784684598E-4</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29057506533849892</v>
+        <v>0.4126828478010412</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6341429422151027</v>
+        <v>0.67464224023385377</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="11"/>
-        <v>0.45821698231553482</v>
+        <v>0.61170620988391033</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.63398057291764454</v>
+        <v>0.67414649236600688</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51940923307258924</v>
+        <v>0.82852826906793486</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48072403415852488</v>
+        <v>0.5527900021968648</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0801955570006663</v>
+        <v>1.8090052208358691</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24969250190184061</v>
+        <v>0.45800214367822834</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>6.2423125475460153E-2</v>
+        <v>0.11450053591955708</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="5"/>
-        <v>3.52769738184457</v>
+        <v>1.72671488501198</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8040017471778068E-5</v>
+        <v>4.0935363453347204E-4</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0572691696420908E-5</v>
+        <v>4.6228558134540492E-4</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="8"/>
-        <v>7.8113150697016459E-5</v>
+        <v>5.5795993764396227E-4</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="9"/>
-        <v>0.24973307459353702</v>
+        <v>0.45846442925957376</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48080214730922188</v>
+        <v>0.55334796213450876</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.51940923307258924</v>
+        <v>0.82852826906793486</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.48072403415852488</v>
+        <v>0.5527900021968648</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57164130151571113</v>
+        <v>0.47148739413893759</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51519375964202652</v>
+        <v>0.48712538938646016</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9410172993842796</v>
+        <v>2.0528595342967262</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2945060312945405</v>
+        <v>0.22967348046073738</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3626507823635126E-2</v>
+        <v>5.7418370115184345E-2</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9226510223749633</v>
+        <v>3.8748469985857339</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="6"/>
-        <v>7.28099236679957E-5</v>
+        <v>2.7366459378924598E-5</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="7"/>
-        <v>7.8596726140058853E-5</v>
+        <v>2.9033516579639692E-5</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3749308514213207E-4</v>
+        <v>6.1578563797368708E-5</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29458462802068058</v>
+        <v>0.22970251397731703</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51533125272716862</v>
+        <v>0.48718696795025751</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="11"/>
-        <v>0.57164130151571113</v>
+        <v>0.47148739413893759</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="12"/>
-        <v>0.51519375964202652</v>
+        <v>0.48712538938646016</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68681307269054592</v>
+        <v>0.84399519076445095</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50777230362317849</v>
+        <v>0.52568044955604809</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9693866578869321</v>
+        <v>1.902296349130975</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34874465607859201</v>
+        <v>0.44367177130419916</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>8.7186164019648002E-2</v>
+        <v>0.11091794282604979</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3998992350988724</v>
+        <v>1.7958117387730848</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4127892039486929E-4</v>
+        <v>3.6170683460276293E-4</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5477298308382592E-4</v>
+        <v>4.0683177855651458E-4</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="8"/>
-        <v>2.2534950081470165E-4</v>
+        <v>4.8203092032790562E-4</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="9"/>
-        <v>0.34889942906167581</v>
+        <v>0.44407860308275565</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="10"/>
-        <v>0.50799765312399314</v>
+        <v>0.52616248047637604</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="11"/>
-        <v>0.68681307269054592</v>
+        <v>0.84399519076445095</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="12"/>
-        <v>0.50777230362317849</v>
+        <v>0.52568044955604809</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99789791809677719</v>
+        <v>0.41157227682040065</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8112330998195485</v>
+        <v>0.64759821322532607</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2326913192058373</v>
+        <v>1.5441673240875031</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80952782140112256</v>
+        <v>0.26653347108197073</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20238195535028064</v>
+        <v>6.6633367770492682E-2</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81290599114330397</v>
+        <v>3.2762792356219803</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6909062610411378E-3</v>
+        <v>4.9183132005988009E-5</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="7"/>
-        <v>4.6274106833453475E-3</v>
+        <v>5.2694332867359538E-5</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="8"/>
-        <v>4.6371583700373815E-3</v>
+        <v>1.2803178405127117E-4</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="9"/>
-        <v>0.81415523208446794</v>
+        <v>0.26658616541483809</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="10"/>
-        <v>0.81587025818958592</v>
+        <v>0.64772624500937737</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="11"/>
-        <v>0.99789791809677719</v>
+        <v>0.41157227682040065</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8112330998195485</v>
+        <v>0.64759821322532607</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65820739934198114</v>
+        <v>0.95417800387296814</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8217283399922557</v>
+        <v>0.65983541683915903</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2169471969403227</v>
+        <v>1.5155294403418773</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54086767363190591</v>
+        <v>0.62960044092427658</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13521691840797648</v>
+        <v>0.15740011023106915</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4004330379192957</v>
+        <v>1.1486106012391077</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8079865669173298E-4</v>
+        <v>1.4047702680205917E-3</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="7"/>
-        <v>9.0288382521813519E-4</v>
+        <v>1.6671854400619811E-3</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3717315030501941E-3</v>
+        <v>1.7472478230423946E-3</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54177055745712399</v>
+        <v>0.63126762636433853</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.82310007149530584</v>
+        <v>0.66158266466220139</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="11"/>
-        <v>0.65820739934198114</v>
+        <v>0.95417800387296814</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8217283399922557</v>
+        <v>0.65983541683915903</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71452639994047118</v>
+        <v>0.53375255431444812</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77513641009435319</v>
+        <v>0.51867709596516121</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>1.290095507032466</v>
+        <v>1.9279817978836848</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55385542856749881</v>
+        <v>0.27684522483580493</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1384638571418747</v>
+        <v>6.9211306208951232E-2</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3583636570961921</v>
+        <v>3.1375359134834713</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5595986745517951E-4</v>
+        <v>5.7102031359400092E-5</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="7"/>
-        <v>9.9352752005917402E-4</v>
+        <v>6.1348007061438195E-5</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3904699954290661E-3</v>
+        <v>1.149371681044854E-4</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="9"/>
-        <v>0.55484895608755802</v>
+        <v>0.27690657284286635</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="10"/>
-        <v>0.77652688008978221</v>
+        <v>0.51879203313326572</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="11"/>
-        <v>0.71452639994047118</v>
+        <v>0.53375255431444812</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="12"/>
-        <v>0.77513641009435319</v>
+        <v>0.51867709596516121</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43686406695085112</v>
+        <v>0.5626558519186653</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75297721573949805</v>
+        <v>0.70575323224622122</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3280614327990006</v>
+        <v>1.4169258521385315</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32894868878928557</v>
+        <v>0.39709618613384928</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2237172197321393E-2</v>
+        <v>9.9274046533462321E-2</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5705060052437076</v>
+        <v>2.0555444829916634</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1237190008318522E-4</v>
+        <v>2.3471538077433565E-4</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2244111079572453E-4</v>
+        <v>2.6058467602827368E-4</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8027278977261279E-4</v>
+        <v>4.6313332588593159E-4</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="9"/>
-        <v>0.32907112990008131</v>
+        <v>0.39735677080987758</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="10"/>
-        <v>0.75325748852927066</v>
+        <v>0.7062163655721071</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43686406695085112</v>
+        <v>0.5626558519186653</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="12"/>
-        <v>0.75297721573949805</v>
+        <v>0.70575323224622122</v>
       </c>
     </row>
   </sheetData>
@@ -1465,19 +1465,19 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">O3</f>
-        <v>0.38913072579490887</v>
+        <v>0.79310735590281722</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="1">P3</f>
-        <v>0.44441212777569378</v>
+        <v>0.37412736991724149</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="2">1/B3</f>
-        <v>2.2501636150324091</v>
+        <v>2.6728865098033436</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" ca="1" si="3">A3/C3</f>
-        <v>0.17293441383341548</v>
+        <v>0.2967231691259386</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1488,53 +1488,53 @@
       </c>
       <c r="G3">
         <f ca="1">(SERIESSUM(D3,0,1,$F$2:$F$5))^(-1)</f>
-        <v>0.84122009325093827</v>
+        <v>0.74343935065399536</v>
       </c>
       <c r="H3">
         <f ca="1">G3*D3^$N$2/FACT($N$2)</f>
-        <v>3.134902950974268E-5</v>
+        <v>2.4012652624801092E-4</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I16" ca="1" si="4">1-H3</f>
-        <v>0.99996865097049026</v>
+        <v>0.99975987347375195</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J16" ca="1" si="5">I3</f>
-        <v>0.99996865097049026</v>
+        <v>0.99975987347375195</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K16" ca="1" si="6">A3*J3</f>
-        <v>0.38911852692430277</v>
+        <v>0.79291690978850249</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L16" ca="1" si="7">K3/C3</f>
-        <v>0.17292899250737298</v>
+        <v>0.29665191802207908</v>
       </c>
       <c r="O3">
         <f ca="1">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.38913072579490887</v>
+        <v>0.79310735590281722</v>
       </c>
       <c r="P3">
         <f ca="1">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.44441212777569378</v>
+        <v>0.37412736991724149</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54962280505679406</v>
+        <v>0.45665260901880694</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7852233012534926</v>
+        <v>0.7121280110518966</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2735230836930695</v>
+        <v>1.4042419122411471</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43157663343090064</v>
+        <v>0.32519511420222236</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1545,53 +1545,53 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G16" ca="1" si="8">(SERIESSUM(D4,0,1,$F$2:$F$5))^(-1)</f>
-        <v>0.6501513951384893</v>
+        <v>0.72264636616661038</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H16" ca="1" si="9">G4*D4^$N$2/FACT($N$2)</f>
-        <v>9.3979893562033299E-4</v>
+        <v>3.3673683809512306E-4</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99906020106437965</v>
+        <v>0.9996632631619049</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99906020106437965</v>
+        <v>0.9996632631619049</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="6"/>
-        <v>0.549106270129609</v>
+        <v>0.45649883726313806</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="7"/>
-        <v>0.43117103817016367</v>
+        <v>0.32508560902770189</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:P16" ca="1" si="10">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.54962280505679406</v>
+        <v>0.45665260901880694</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.7852233012534926</v>
+        <v>0.7121280110518966</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38189117910887455</v>
+        <v>0.39400711567070817</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53012832022092748</v>
+        <v>0.42303190176383443</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.886335745246088</v>
+        <v>2.3638879144350415</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.202451329288177</v>
+        <v>0.16667757945066278</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1602,585 +1602,585 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="8"/>
-        <v>0.81677488139497034</v>
+        <v>0.84649632027929378</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="9"/>
-        <v>5.7170720072590574E-5</v>
+        <v>2.7222159375345716E-5</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99994282927992739</v>
+        <v>0.99997277784062466</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99994282927992739</v>
+        <v>0.99997277784062466</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38186934611517553</v>
+        <v>0.39399638994621039</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="7"/>
-        <v>0.20243975499990197</v>
+        <v>0.16667304212703069</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="10"/>
-        <v>0.38189117910887455</v>
+        <v>0.39400711567070817</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="10"/>
-        <v>0.53012832022092748</v>
+        <v>0.42303190176383443</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46808718848589526</v>
+        <v>0.60842415845628062</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57222969017766367</v>
+        <v>0.57585973851758332</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7475500086154632</v>
+        <v>1.736533973662175</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26785338684341753</v>
+        <v>0.35036697679641443</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.76515251712081711</v>
+        <v>0.7047644372259696</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6410633184660731E-4</v>
+        <v>4.4251235694747797E-4</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9998358936681534</v>
+        <v>0.99955748764305252</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9998358936681534</v>
+        <v>0.99955748764305252</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46801037241440846</v>
+        <v>0.60815492324789833</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26780943040662997</v>
+        <v>0.35021193507971565</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46808718848589526</v>
+        <v>0.60842415845628062</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57222969017766367</v>
+        <v>0.57585973851758332</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68764032004647768</v>
+        <v>0.53376820018662785</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65589320619706193</v>
+        <v>0.43476715947127986</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5246384480761823</v>
+        <v>2.3000817293010343</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45101861422565809</v>
+        <v>0.23206488421123769</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63774762732319445</v>
+        <v>0.79297432313272043</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0995512454292503E-3</v>
+        <v>9.5826493607458049E-5</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99890044875457074</v>
+        <v>0.99990417350639249</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99890044875457074</v>
+        <v>0.99990417350639249</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.68688422427616325</v>
+        <v>0.53371705105160483</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45052269614667451</v>
+        <v>0.23204264624709431</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.68764032004647768</v>
+        <v>0.53376820018662785</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.65589320619706193</v>
+        <v>0.43476715947127986</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88727529340403066</v>
+        <v>0.87734451742511521</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39135032818016663</v>
+        <v>0.55373278132915471</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5552552993890125</v>
+        <v>1.8059252291324455</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34723547725982101</v>
+        <v>0.48581441981769408</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="8"/>
-        <v>0.70696381336495906</v>
+        <v>0.61616868044153461</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="9"/>
-        <v>4.2823514477242187E-4</v>
+        <v>1.4301117765764414E-3</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99957176485522758</v>
+        <v>0.99856988822342352</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99957176485522758</v>
+        <v>0.99856988822342352</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.88689533094030681</v>
+        <v>0.87608981669863073</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34708677882494654</v>
+        <v>0.48511965089468212</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.88727529340403066</v>
+        <v>0.87734451742511521</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.39135032818016663</v>
+        <v>0.55373278132915471</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43225807956154461</v>
+        <v>0.45139463014475878</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84775307786457432</v>
+        <v>0.9470727207027585</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1795887577535242</v>
+        <v>1.0558851270237914</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3664481173801295</v>
+        <v>0.42750354048181216</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.69358151560242221</v>
+        <v>0.65278204250308436</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2111820837707449E-4</v>
+        <v>9.0848094023852617E-4</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99947888179162292</v>
+        <v>0.99909151905976146</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99947888179162292</v>
+        <v>0.99909151905976146</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43203282200556697</v>
+        <v>0.45098454672674626</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3662571545937372</v>
+        <v>0.42711516166339991</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43225807956154461</v>
+        <v>0.45139463014475878</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84775307786457432</v>
+        <v>0.9470727207027585</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82230831062494036</v>
+        <v>0.42384790563531521</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99689889797976761</v>
+        <v>0.3814840675264744</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0031107487695261</v>
+        <v>2.6213414533507393</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8197582486616074</v>
+        <v>0.16169122305433734</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="8"/>
-        <v>0.44492427933911377</v>
+        <v>0.85072513778667158</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3717845943949622E-3</v>
+        <v>2.4228348312171531E-5</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99162821540560508</v>
+        <v>0.99997577165168783</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99162821540560508</v>
+        <v>0.99997577165168783</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81542412257820762</v>
+        <v>0.42383763650062611</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="7"/>
-        <v>0.81289540918433401</v>
+        <v>0.16168730554306618</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.82230831062494036</v>
+        <v>0.42384790563531521</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.99689889797976761</v>
+        <v>0.3814840675264744</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82107361579938531</v>
+        <v>0.64010602479208245</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42134351370775158</v>
+        <v>0.45074449456816368</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>2.373360375718542</v>
+        <v>2.2185517783374178</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34595404229364146</v>
+        <v>0.28852426661494363</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="8"/>
-        <v>0.70786586935060247</v>
+        <v>0.749540632696166</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="9"/>
-        <v>4.2248701827988025E-4</v>
+        <v>2.1642793833363374E-4</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99957751298172015</v>
+        <v>0.99978357206166635</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99957751298172015</v>
+        <v>0.99978357206166635</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82072672285565795</v>
+        <v>0.63996748796482172</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34580788120185096</v>
+        <v>0.28846182190276093</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="10"/>
-        <v>0.82107361579938531</v>
+        <v>0.64010602479208245</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42134351370775158</v>
+        <v>0.45074449456816368</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5914675359273287</v>
+        <v>0.86388602946878568</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85164807650343011</v>
+        <v>0.50291784693136621</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1741939277379116</v>
+        <v>1.9883963277534495</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50372218928673285</v>
+        <v>0.43446370193452849</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="8"/>
-        <v>0.60536634605496886</v>
+        <v>0.64829351390446721</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="9"/>
-        <v>1.62394516638247E-3</v>
+        <v>9.624416928972749E-4</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99837605483361758</v>
+        <v>0.99903755830710272</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99837605483361758</v>
+        <v>0.99903755830710272</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59050702508128738</v>
+        <v>0.86305458953611347</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="7"/>
-        <v>0.50290417207224114</v>
+        <v>0.43404555595373623</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5914675359273287</v>
+        <v>0.86388602946878568</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85164807650343011</v>
+        <v>0.50291784693136621</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42414509159313285</v>
+        <v>0.42217714495094016</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67962311908686801</v>
+        <v>0.63711765572290202</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4714037411552241</v>
+        <v>1.5695688088652253</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28825881009391024</v>
+        <v>0.26897651289093077</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="8"/>
-        <v>0.74973903313554202</v>
+        <v>0.76429575255417947</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1568961655751273E-4</v>
+        <v>1.6668926825736882E-4</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99978431038344251</v>
+        <v>0.99983331073174264</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99978431038344251</v>
+        <v>0.99983331073174264</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42405360790096236</v>
+        <v>0.42210677255157331</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28819663566169179</v>
+        <v>0.26893167739281859</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42414509159313285</v>
+        <v>0.42217714495094016</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="10"/>
-        <v>0.67962311908686801</v>
+        <v>0.63711765572290202</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46542893159632065</v>
+        <v>0.46701024908690436</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67214584108230602</v>
+        <v>0.4443311668684527</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4877723536751712</v>
+        <v>2.2505736139280477</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31283612069184802</v>
+        <v>0.20750720891631097</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="8"/>
-        <v>0.73159738151225817</v>
+        <v>0.81266059304463978</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9196343725232312E-4</v>
+        <v>6.2781359344445077E-5</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99970803656274765</v>
+        <v>0.99993721864065555</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99970803656274765</v>
+        <v>0.99993721864065555</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46529304336565508</v>
+        <v>0.4669809295486389</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31274478398275413</v>
+        <v>0.20749418133166142</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46542893159632065</v>
+        <v>0.46701024908690436</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.67214584108230602</v>
+        <v>0.4443311668684527</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54003599284751513</v>
+        <v>0.62692588015420569</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53312632586360487</v>
+        <v>0.90111738904110705</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8757280432177348</v>
+        <v>1.1097333290439721</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28790740470089976</v>
+        <v>0.5649338122468559</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="8"/>
-        <v>0.75000175425562166</v>
+        <v>0.56994388085200998</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1471499544977054E-4</v>
+        <v>2.4188622048779023E-3</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99978528500455022</v>
+        <v>0.99758113779512214</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99978528500455022</v>
+        <v>0.99758113779512214</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53992003902176811</v>
+        <v>0.62540943283744088</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28784558666380938</v>
+        <v>0.56356731520015435</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="10"/>
-        <v>0.54003599284751513</v>
+        <v>0.62692588015420569</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="10"/>
-        <v>0.53312632586360487</v>
+        <v>0.90111738904110705</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6769311893780946</v>
+        <v>0.86980285092603682</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50386604590799566</v>
+        <v>0.79594830509442382</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9846544694194315</v>
+        <v>1.2563629994555605</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34108264174373709</v>
+        <v>0.69231810496087687</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71130596781150335</v>
+        <v>0.50320150255385387</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0112865077145316E-4</v>
+        <v>4.8167426558823031E-3</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99959887134922853</v>
+        <v>0.99518325734411772</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99959887134922853</v>
+        <v>0.99518325734411772</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67665965288343422</v>
+        <v>0.8656132344317734</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34094582372385285</v>
+        <v>0.6889833868132722</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6769311893780946</v>
+        <v>0.86980285092603682</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="10"/>
-        <v>0.50386604590799566</v>
+        <v>0.79594830509442382</v>
       </c>
     </row>
   </sheetData>
@@ -2193,7 +2193,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2290,8 +2290,8 @@
         <v>2.295832346842872E-4</v>
       </c>
       <c r="H2">
-        <f>(100*G2*E2^($P$2+A2))/($P$2^A2*FACT($P$2))</f>
-        <v>2.451652999289727E-2</v>
+        <f>(G2*E2^($P$2+A2))/($P$2^A2*FACT($P$2))</f>
+        <v>2.451652999289727E-4</v>
       </c>
       <c r="I2">
         <f>(E2^($P$2+1))/($P$2*FACT($P$2))</f>
@@ -2315,11 +2315,11 @@
       </c>
       <c r="N2">
         <f>M2+(1-H2)/D2</f>
-        <v>17.79754416002131</v>
+        <v>17.870358254100214</v>
       </c>
       <c r="O2">
         <f>(1-H2)*C2/D2</f>
-        <v>2.9264504100213085</v>
+        <v>2.9992645041002133</v>
       </c>
       <c r="P2">
         <v>4</v>
@@ -2347,39 +2347,39 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="0">R3</f>
-        <v>0.42479762924572118</v>
+        <v>0.43400399090815323</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">Q3</f>
-        <v>0.49059985136189732</v>
+        <v>0.70610728477743678</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" ca="1" si="2">1/B3</f>
-        <v>2.3540621019369135</v>
+        <v>2.3041262775199378</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="3">C3/D3</f>
-        <v>0.20840565376683717</v>
+        <v>0.30645337960272745</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F16" ca="1" si="4">E3/$P$2</f>
-        <v>5.2101413441709293E-2</v>
+        <v>7.6613344900681862E-2</v>
       </c>
       <c r="G3">
         <f ca="1">IF(F3&lt;&gt;1,1/(SERIESSUM(E3,0,1,$T$2:$T$6)+(E3^($P$2+1))*(1-F3^A3))/(FACT($P$2)*($P$2-E3)),1/(SERIESSUM(E3,0,1,$T$2:$T$6)+(A3*E3^($P$2+1))/($P$2*FACT(P3))))</f>
-        <v>4.7346419957333671E-2</v>
+        <v>3.1225159709749133E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" ca="1" si="5">(G3*E3^($P$2+A3))/($P$2^A3*FACT($P$2))</f>
-        <v>2.7422807296487144E-11</v>
+        <v>3.9533820190318666E-10</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I16" ca="1" si="6">(E3^($P$2+1))/($P$2*FACT($P$2))</f>
-        <v>4.0952106883944243E-6</v>
+        <v>2.8154696023667645E-5</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J16" ca="1" si="7">(1-F3^A3*(A3+1-(A3*E3)/$P$2))/(1-E3/$P$2)^2</f>
-        <v>1.1129122278164629</v>
+        <v>1.1726342638237479</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K16" si="8">(A3*(A3+1))/2</f>
@@ -2387,27 +2387,27 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L16" ca="1" si="9">IF(F3&lt;&gt;1,I3*J3,I3*K3)</f>
-        <v>4.5576100505988295E-6</v>
+        <v>3.3015161244894913E-5</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M16" ca="1" si="10">L3/C3</f>
-        <v>9.2898724652014813E-6</v>
+        <v>4.6756579285683486E-5</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N16" ca="1" si="11">M3+(1-H3)/D3</f>
-        <v>0.42480691910653717</v>
+        <v>0.43405074731586052</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O16" ca="1" si="12">(1-H3)*C3/D3</f>
-        <v>0.20840565376112211</v>
+        <v>0.30645337948157469</v>
       </c>
       <c r="Q3">
         <f ca="1">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.49059985136189732</v>
+        <v>0.70610728477743678</v>
       </c>
       <c r="R3">
         <f ca="1">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.42479762924572118</v>
+        <v>0.43400399090815323</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -2424,39 +2424,39 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53731150151513052</v>
+        <v>0.49406423038289993</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46892116441672921</v>
+        <v>0.6392951027390058</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8611178007173932</v>
+        <v>2.0240283317515209</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25195673494497617</v>
+        <v>0.31585284292230387</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.2989183736244042E-2</v>
+        <v>7.8963210730575967E-2</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G16" ca="1" si="13">IF(F4&lt;&gt;1,1/(SERIESSUM(E4,0,1,$T$2:$T$6)+(E4^($P$2+1))*(1-F4^A4))/(FACT($P$2)*($P$2-E4)),1/(SERIESSUM(E4,0,1,$T$2:$T$6)+(A4*E4^($P$2+1))/($P$2*FACT(P4))))</f>
-        <v>3.8661211287562898E-2</v>
+        <v>3.0195947949090658E-2</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0219555909241097E-10</v>
+        <v>4.8682826247468479E-10</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0576905542166439E-5</v>
+        <v>3.2745582333986525E-5</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1388809522071934</v>
+        <v>1.1786013894687022</v>
       </c>
       <c r="K4">
         <f t="shared" si="8"/>
@@ -2464,27 +2464,27 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2045836255268055E-5</v>
+        <v>3.8593988837798307E-5</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="10"/>
-        <v>2.5688403871152523E-5</v>
+        <v>6.0369598754074022E-5</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.53733718986409085</v>
+        <v>0.49412459974112954</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="12"/>
-        <v>0.25195673491922732</v>
+        <v>0.31585284276853776</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q16" ca="1" si="14">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.46892116441672921</v>
+        <v>0.6392951027390058</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="Q4:R16" ca="1" si="15">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
-        <v>0.53731150151513052</v>
+        <f t="shared" ref="R4:R16" ca="1" si="15">_xlfn.POISSON.DIST(RAND(), RAND(),TRUE)</f>
+        <v>0.49406423038289993</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -2501,39 +2501,39 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57352024562733139</v>
+        <v>0.94167991354679348</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56628932374165741</v>
+        <v>0.44866530870548216</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7436176100569456</v>
+        <v>1.0619319639446769</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32477839204845077</v>
+        <v>0.42249910911322386</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1194598012112693E-2</v>
+        <v>0.10562477727830596</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="13"/>
-        <v>2.9271939882047439E-2</v>
+        <v>2.1603865425268046E-2</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8978987962970564E-10</v>
+        <v>3.5701514231163995E-9</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7641281758638089E-5</v>
+        <v>1.402354313229421E-4</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1843080061915088</v>
+        <v>1.2494329861281017</v>
       </c>
       <c r="K5">
         <f t="shared" si="8"/>
@@ -2541,27 +2541,27 @@
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="9"/>
-        <v>4.4578871350065485E-5</v>
+        <v>1.7521477371878588E-4</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="10"/>
-        <v>7.872101676845752E-5</v>
+        <v>3.9052445178863228E-4</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="11"/>
-        <v>0.57359896630584339</v>
+        <v>0.94207043463664231</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32477839185689972</v>
+        <v>0.42249910760483805</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="14"/>
-        <v>0.56628932374165741</v>
+        <v>0.44866530870548216</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="15"/>
-        <v>0.57352024562733139</v>
+        <v>0.94167991354679348</v>
       </c>
       <c r="S5">
         <v>3</v>
@@ -2578,39 +2578,39 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51607728145993148</v>
+        <v>0.74522101065039814</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5517437404005745</v>
+        <v>0.54720408742883542</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9376942871251746</v>
+        <v>1.3418837978376927</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28474240960846264</v>
+        <v>0.4077879830657456</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1185602402115661E-2</v>
+        <v>0.1019469957664364</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="13"/>
-        <v>3.3854099189601639E-2</v>
+        <v>2.2537409009009631E-2</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3810981767165175E-10</v>
+        <v>2.8049696597104957E-9</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9497976671848925E-5</v>
+        <v>1.1746294492899857E-4</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1590162756082816</v>
+        <v>1.2393117793358959</v>
       </c>
       <c r="K6">
         <f t="shared" si="8"/>
@@ -2618,27 +2618,27 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2598472304103497E-5</v>
+        <v>1.4557321128599155E-4</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="10"/>
-        <v>4.0958275825107969E-5</v>
+        <v>2.660309281862291E-4</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.51611823961287351</v>
+        <v>0.74548703948826212</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.28474240954066271</v>
+        <v>0.40778798192191262</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5517437404005745</v>
+        <v>0.54720408742883542</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="15"/>
-        <v>0.51607728145993148</v>
+        <v>0.74522101065039814</v>
       </c>
       <c r="S6">
         <v>4</v>
@@ -2655,39 +2655,39 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43024551113840076</v>
+        <v>0.86454537087278982</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89051017628770801</v>
+        <v>0.48205266869786706</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3242543480676114</v>
+        <v>1.1566772938596199</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38313800597085235</v>
+        <v>0.41675640323961555</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5784501492713087E-2</v>
+        <v>0.10418910080990389</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="13"/>
-        <v>2.4249686534347024E-2</v>
+        <v>2.1961081551344189E-2</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8327228690981866E-9</v>
+        <v>3.252825513463719E-9</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6001284957032748E-5</v>
+        <v>1.3096045437932863E-4</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2226081802115272</v>
+        <v>1.2454683522292811</v>
       </c>
       <c r="K7">
         <f t="shared" si="8"/>
@@ -2695,27 +2695,27 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="9"/>
-        <v>1.051458744971708E-4</v>
+        <v>1.6310710132302038E-4</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1807374839386455E-4</v>
+        <v>3.3835950283940845E-4</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43036358409827385</v>
+        <v>0.86488372756341403</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.38313800526866654</v>
+        <v>0.41675640188397967</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="14"/>
-        <v>0.89051017628770801</v>
+        <v>0.48205266869786706</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43024551113840076</v>
+        <v>0.86454537087278982</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -2725,39 +2725,39 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54528888203756176</v>
+        <v>0.659605207590644</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76871717985165844</v>
+        <v>0.79506184280536896</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8338903156494504</v>
+        <v>1.5160583762713522</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41917293160437813</v>
+        <v>0.5244269318710354</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10479323290109453</v>
+        <v>0.13110673296775885</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1809671892184808E-2</v>
+        <v>1.6449920690665268E-2</v>
       </c>
       <c r="H8">
         <f ca="1">(G8*E8^($P$2+A8))/($P$2^A8*FACT($P$2))</f>
-        <v>3.3833253675702529E-9</v>
+        <v>1.5317662460747678E-8</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3480155963765399E-4</v>
+        <v>4.1319370894381084E-4</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2471345293335516</v>
+        <v>1.3227947538704439</v>
       </c>
       <c r="K8">
         <f t="shared" si="8"/>
@@ -2765,27 +2765,27 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.681156796321343E-4</v>
+        <v>5.4657047052314412E-4</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="10"/>
-        <v>2.1869639971436056E-4</v>
+        <v>6.8745654878188454E-4</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.54550757659238636</v>
+        <v>0.66029265403581594</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41917293018617968</v>
+        <v>0.52442692383804068</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="14"/>
-        <v>0.76871717985165844</v>
+        <v>0.79506184280536896</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="15"/>
-        <v>0.54528888203756176</v>
+        <v>0.659605207590644</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -2795,39 +2795,39 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47844907728655434</v>
+        <v>0.50251119932895671</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63203893141298939</v>
+        <v>0.76294153390686892</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0900865890918556</v>
+        <v>1.9900053995520492</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30239844354372458</v>
+        <v>0.38338666522141462</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5599610885931146E-2</v>
+        <v>9.5846666305353656E-2</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="13"/>
-        <v>3.1688284111606832E-2</v>
+        <v>2.4231390842006477E-2</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.6064833226519062E-10</v>
+        <v>1.8408701796012111E-9</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="6"/>
-        <v>2.634065223056338E-5</v>
+        <v>8.628072462108817E-5</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1700734234471886</v>
+        <v>1.2227750965268058</v>
       </c>
       <c r="K9">
         <f t="shared" si="8"/>
@@ -2835,27 +2835,27 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="9"/>
-        <v>3.0820497131247117E-5</v>
+        <v>1.0550192137695384E-4</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="10"/>
-        <v>4.8763605530350261E-5</v>
+        <v>1.3828310124459981E-4</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47849784071953289</v>
+        <v>0.50264948150514344</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.3023984434346651</v>
+        <v>0.38338666451564951</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="14"/>
-        <v>0.63203893141298939</v>
+        <v>0.76294153390686892</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="15"/>
-        <v>0.47844907728655434</v>
+        <v>0.50251119932895671</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -2865,39 +2865,39 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64884717457048946</v>
+        <v>0.84197011669843103</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78978695223790407</v>
+        <v>0.71791755045814221</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5411949673079173</v>
+        <v>1.1876906082145082</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51245103247220214</v>
+        <v>0.60446512373909378</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12811275811805053</v>
+        <v>0.15111628093477344</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="13"/>
-        <v>1.6961236199901718E-2</v>
+        <v>1.3481950619822091E-2</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3128807328040128E-8</v>
+        <v>3.9108531612794227E-8</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6812103069148636E-4</v>
+        <v>8.4059152595348467E-4</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3138749492970598</v>
+        <v>1.384544597326149</v>
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
@@ -2905,27 +2905,27 @@
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8366500053495808E-4</v>
+        <v>1.1638364558170405E-3</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="10"/>
-        <v>6.1239933017944543E-4</v>
+        <v>1.6211282968000061E-3</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.64945956538207927</v>
+        <v>0.84359121206701615</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.51245102574433121</v>
+        <v>0.60446510009935039</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.78978695223790407</v>
+        <v>0.71791755045814221</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.64884717457048946</v>
+        <v>0.84197011669843103</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2935,39 +2935,39 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86788263785253272</v>
+        <v>0.47712888648961316</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49252705024803428</v>
+        <v>0.74288947141878259</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1522295254971056</v>
+        <v>2.0958697499061807</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42745567558299091</v>
+        <v>0.35445402628290101</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10686391889574773</v>
+        <v>8.8613506570725253E-2</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1302619215376222E-2</v>
+        <v>2.6521738079394931E-2</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="5"/>
-        <v>3.864652952072288E-9</v>
+        <v>1.0755487158557056E-9</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4865660361291613E-4</v>
+        <v>5.8281180044714326E-5</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2528690291331335</v>
+        <v>1.2035673721121762</v>
       </c>
       <c r="K11">
         <f t="shared" si="8"/>
@@ -2975,27 +2975,27 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8624725464274329E-4</v>
+        <v>7.0145326710013427E-5</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="10"/>
-        <v>3.7814624506197185E-4</v>
+        <v>9.4422292156124812E-5</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86826078074352941</v>
+        <v>0.47722330826859388</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="12"/>
-        <v>0.42745567393102307</v>
+        <v>0.35445402590166847</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="14"/>
-        <v>0.49252705024803428</v>
+        <v>0.74288947141878259</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="15"/>
-        <v>0.86788263785253272</v>
+        <v>0.47712888648961316</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -3005,39 +3005,39 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71474431408483297</v>
+        <v>0.44236359126557057</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6851953444488551</v>
+        <v>0.98917025493659394</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3991017211244441</v>
+        <v>2.26058387205663</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48973947648221777</v>
+        <v>0.43757290634683171</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12243486912055444</v>
+        <v>0.10939322658670793</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="13"/>
-        <v>1.799019567631565E-2</v>
+        <v>2.0707057747478993E-2</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6895940240587109E-9</v>
+        <v>4.5297118462196364E-9</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9346366038630818E-4</v>
+        <v>1.6710170625812795E-4</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2971819700623757</v>
+        <v>1.2599234688390126</v>
       </c>
       <c r="K12">
         <f t="shared" si="8"/>
@@ -3045,27 +3045,27 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="9"/>
-        <v>3.806757691216272E-4</v>
+        <v>2.105353613976583E-4</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="10"/>
-        <v>5.5557261473781355E-4</v>
+        <v>2.1284036832582847E-4</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="11"/>
-        <v>0.71529987977398857</v>
+        <v>0.44257642963011679</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="12"/>
-        <v>0.48973947173684107</v>
+        <v>0.43757290436475255</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="14"/>
-        <v>0.6851953444488551</v>
+        <v>0.98917025493659394</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="15"/>
-        <v>0.71474431408483297</v>
+        <v>0.44236359126557057</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -3075,39 +3075,39 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66439278590920303</v>
+        <v>0.37172638830180743</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9228423630959216</v>
+        <v>0.43512796378229296</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5051337419799462</v>
+        <v>2.690150690050265</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61312980857233168</v>
+        <v>0.16174854642591144</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15328245214308292</v>
+        <v>4.043713660647786E-2</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3200030110703901E-2</v>
+        <v>6.179408859698992E-2</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2908483034361163E-8</v>
+        <v>4.712146848819459E-12</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0259083800210682E-4</v>
+        <v>1.1532692157207675E-6</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3914572323225349</v>
+        <v>1.0860442443431582</v>
       </c>
       <c r="K13">
         <f t="shared" si="8"/>
@@ -3115,27 +3115,27 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="9"/>
-        <v>1.255916549366089E-3</v>
+        <v>1.2525013939116876E-6</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3609220811588894E-3</v>
+        <v>2.8784667917558846E-6</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="11"/>
-        <v>0.66575367948227537</v>
+        <v>0.37172926676684759</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="12"/>
-        <v>0.61312978226386161</v>
+        <v>0.16174854642514927</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="14"/>
-        <v>0.9228423630959216</v>
+        <v>0.43512796378229296</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="15"/>
-        <v>0.66439278590920303</v>
+        <v>0.37172638830180743</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -3145,39 +3145,39 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89310970178714688</v>
+        <v>0.98968387375181754</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38799816096425338</v>
+        <v>0.61178248293714488</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.119683279667617</v>
+        <v>1.0104236580202877</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34652492183274575</v>
+        <v>0.6054712576067387</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="4"/>
-        <v>8.6631230458186437E-2</v>
+        <v>0.15136781440168467</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="13"/>
-        <v>2.7212484817729678E-2</v>
+        <v>1.3448869710440165E-2</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2085825689688329E-10</v>
+        <v>3.9535099072699082E-8</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2047651512662719E-5</v>
+        <v>8.4761068850347813E-4</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1983780303625078</v>
+        <v>1.3853449622875451</v>
       </c>
       <c r="K14">
         <f t="shared" si="8"/>
@@ -3185,27 +3185,27 @@
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2372762104738954E-5</v>
+        <v>1.1742331972993711E-3</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="10"/>
-        <v>1.6075530345228985E-4</v>
+        <v>1.9193638753138556E-3</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="11"/>
-        <v>0.8932704562681717</v>
+        <v>0.99160319849988143</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="12"/>
-        <v>0.34652492151364539</v>
+        <v>0.60547123366937261</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="14"/>
-        <v>0.38799816096425338</v>
+        <v>0.61178248293714488</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="15"/>
-        <v>0.89310970178714688</v>
+        <v>0.98968387375181754</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -3215,39 +3215,39 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60501393620190047</v>
+        <v>0.62516714297902076</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50240465058440154</v>
+        <v>0.42171570358398192</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6528544884068388</v>
+        <v>1.5995722283721456</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30396181521620919</v>
+        <v>0.26364280155898556</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5990453804052296E-2</v>
+        <v>6.5910700389746391E-2</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="13"/>
-        <v>3.1508307984793885E-2</v>
+        <v>3.681324852836771E-2</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7370259190999568E-10</v>
+        <v>1.398557348113241E-10</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7028622577506854E-5</v>
+        <v>1.3268088410599211E-5</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1710597972333154</v>
+        <v>1.1459993845007588</v>
       </c>
       <c r="K15">
         <f t="shared" si="8"/>
@@ -3255,27 +3255,27 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1652133275110987E-5</v>
+        <v>1.5205221152048347E-5</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="10"/>
-        <v>6.300127444738607E-5</v>
+        <v>3.6055619989546647E-5</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="11"/>
-        <v>0.60507693725025258</v>
+        <v>0.62520319851157713</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="12"/>
-        <v>0.30396181510261788</v>
+        <v>0.26364280152211361</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="14"/>
-        <v>0.50240465058440154</v>
+        <v>0.42171570358398192</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="15"/>
-        <v>0.60501393620190047</v>
+        <v>0.62516714297902076</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -3285,39 +3285,39 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67932048212615559</v>
+        <v>0.53309415347828726</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39141468506303767</v>
+        <v>0.73937041830749783</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4720592508416248</v>
+        <v>1.87584124394403</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2658960125682801</v>
+        <v>0.39415404725452269</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="4"/>
-        <v>6.6474003142070026E-2</v>
+        <v>9.8538511813630672E-2</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6475302791426946E-2</v>
+        <v>2.3459862337293611E-2</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4833454221228419E-10</v>
+        <v>2.224345138718492E-9</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3844838370723747E-5</v>
+        <v>9.9096591917196167E-5</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1473793250293236</v>
+        <v>1.2300337106268455</v>
       </c>
       <c r="K16">
         <f t="shared" si="8"/>
@@ -3325,27 +3325,27 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5885281304941094E-5</v>
+        <v>1.2189214866638307E-4</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="10"/>
-        <v>4.05842752230483E-5</v>
+        <v>1.6485937988350673E-4</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="11"/>
-        <v>0.67936106630061188</v>
+        <v>0.53325901167238543</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="12"/>
-        <v>0.26589601252883854</v>
+        <v>0.39415404637778806</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="14"/>
-        <v>0.39141468506303767</v>
+        <v>0.73937041830749783</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="15"/>
-        <v>0.67932048212615559</v>
+        <v>0.53309415347828726</v>
       </c>
     </row>
   </sheetData>
